--- a/LCOH modelling/output/longform_il.xlsx
+++ b/LCOH modelling/output/longform_il.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>noelec_ghg_emissions</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>fuels</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -524,6 +529,11 @@
       </c>
       <c r="K2" t="n">
         <v>7909.900000000001</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -531,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1000261</v>
+        <v>1000376</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,19 +562,24 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60319572.13455356</v>
+        <v>12683376.41912375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8089459.479834151</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J3" t="n">
-        <v>536533.4</v>
+        <v>112816.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -572,11 +587,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1000334</v>
+        <v>1000466</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,19 +608,24 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46676381.62903456</v>
+        <v>30336967.29342982</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6259770.825480588</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J4" t="n">
-        <v>415179.3</v>
+        <v>269842.7</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -613,11 +633,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1000413</v>
+        <v>1002346</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,19 +654,24 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38857518.02243509</v>
+        <v>4417411.278077573</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5211182.811911045</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J5" t="n">
-        <v>345631.7</v>
+        <v>39292.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5631.899999999965</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -654,11 +679,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1000466</v>
+        <v>1002356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -675,19 +700,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30336967.29342982</v>
+        <v>20732834.19638469</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4068491.519035055</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J6" t="n">
-        <v>269842.7</v>
+        <v>184415.4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +725,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1002346</v>
+        <v>1002614</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -716,19 +746,24 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4417411.278077573</v>
+        <v>3324947.363802902</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>592419.1481341877</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J7" t="n">
-        <v>39292.2</v>
+        <v>29574.9</v>
       </c>
       <c r="K7" t="n">
-        <v>7042.5</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -736,11 +771,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1002356</v>
+        <v>1003422</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -757,19 +792,24 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>20732834.19638469</v>
+        <v>10053415.66942797</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2780480.964945345</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J8" t="n">
-        <v>184415.4</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -777,11 +817,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1003422</v>
+        <v>1004033</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -798,19 +838,24 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10053415.66942797</v>
+        <v>7036095.836794195</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1348263.852242744</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J9" t="n">
-        <v>89423.60000000001</v>
+        <v>62585</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -853,6 +898,11 @@
       <c r="K10" t="n">
         <v>244.2999999999884</v>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -894,17 +944,22 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1004861</v>
+        <v>1004708</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -921,19 +976,24 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18409893.88482427</v>
+        <v>5041694.038677309</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2468951.37580098</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J12" t="n">
-        <v>163753.2</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -941,11 +1001,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1005170</v>
+        <v>1004861</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -962,19 +1022,24 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>16419573.10098997</v>
+        <v>18409893.88482427</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2202029.400678477</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J13" t="n">
-        <v>146049.6</v>
+        <v>163753.2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -982,11 +1047,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1005374</v>
+        <v>1005019</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1003,19 +1068,24 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>56788348.04883087</v>
+        <v>5701645.313581191</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7615886.920467395</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J14" t="n">
-        <v>505123.7</v>
+        <v>50714.1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1023,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1005661</v>
+        <v>1005170</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1044,19 +1114,24 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47429900.84998912</v>
+        <v>16419573.10098997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6360315.185906462</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J15" t="n">
-        <v>421852.2000000001</v>
+        <v>146049.6</v>
       </c>
       <c r="K15" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1064,11 +1139,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1006469</v>
+        <v>1005374</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1085,19 +1160,24 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20332074.09684934</v>
+        <v>56788348.04883087</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2726735.01696193</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J16" t="n">
-        <v>180850.7</v>
+        <v>505123.7</v>
       </c>
       <c r="K16" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1105,11 +1185,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1006787</v>
+        <v>1006469</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1126,19 +1206,24 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>19258857.280238</v>
+        <v>20332074.09684934</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2582805.880135695</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J17" t="n">
-        <v>171304.6</v>
+        <v>180850.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1146,11 +1231,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1012111</v>
+        <v>1006787</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1167,19 +1252,24 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3466928.436460686</v>
+        <v>19258857.280238</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>464949.8680738786</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J18" t="n">
-        <v>30837.8</v>
+        <v>171304.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1187,11 +1277,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1000037</v>
+        <v>1012111</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1201,26 +1291,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>295430.1098416321</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12790385.93196713</v>
+        <v>3466928.436460686</v>
       </c>
       <c r="H19" t="n">
-        <v>139025934.043121</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>474376.177911798</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J19" t="n">
-        <v>31463</v>
+        <v>30837.8</v>
       </c>
       <c r="K19" t="n">
-        <v>7909.900000000001</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1228,11 +1323,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1000261</v>
+        <v>1000037</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1246,22 +1341,27 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5037921.409137856</v>
+        <v>295430.1098416321</v>
       </c>
       <c r="G20" t="n">
-        <v>218112362.1838507</v>
+        <v>12790385.93196713</v>
       </c>
       <c r="H20" t="n">
-        <v>2370786545.476638</v>
+        <v>139025934.043121</v>
       </c>
       <c r="I20" t="n">
-        <v>8089459.479834151</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J20" t="n">
-        <v>536533.4</v>
+        <v>31463</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1269,11 +1369,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1000334</v>
+        <v>1000376</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1287,22 +1387,27 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3898435.184279056</v>
+        <v>1059322.063152607</v>
       </c>
       <c r="G21" t="n">
-        <v>168779311.5076109</v>
+        <v>45862414.02825402</v>
       </c>
       <c r="H21" t="n">
-        <v>1834557733.778379</v>
+        <v>498504500.307109</v>
       </c>
       <c r="I21" t="n">
-        <v>6259770.825480588</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J21" t="n">
-        <v>415179.3</v>
+        <v>112816.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1310,11 +1415,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1000413</v>
+        <v>1000466</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1328,22 +1433,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3245399.710636305</v>
+        <v>2533758.970885249</v>
       </c>
       <c r="G22" t="n">
-        <v>140506716.8840188</v>
+        <v>109696858.9747967</v>
       </c>
       <c r="H22" t="n">
-        <v>1527246922.652379</v>
+        <v>1192357162.769529</v>
       </c>
       <c r="I22" t="n">
-        <v>5211182.811911045</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J22" t="n">
-        <v>345631.7</v>
+        <v>269842.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5631.899999999965</v>
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1351,11 +1461,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1000466</v>
+        <v>1002346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1369,22 +1479,27 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2533758.970885249</v>
+        <v>368944.4414683717</v>
       </c>
       <c r="G23" t="n">
-        <v>109696858.9747967</v>
+        <v>15973124.05416009</v>
       </c>
       <c r="H23" t="n">
-        <v>1192357162.769529</v>
+        <v>173620913.6321749</v>
       </c>
       <c r="I23" t="n">
-        <v>4068491.519035055</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J23" t="n">
-        <v>269842.7</v>
+        <v>39292.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1392,11 +1507,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1002346</v>
+        <v>1002356</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1410,22 +1525,27 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>368944.4414683717</v>
+        <v>1731616.879461225</v>
       </c>
       <c r="G24" t="n">
-        <v>15973124.05416009</v>
+        <v>74968824.89902717</v>
       </c>
       <c r="H24" t="n">
-        <v>173620913.6321749</v>
+        <v>814878531.5111649</v>
       </c>
       <c r="I24" t="n">
-        <v>592419.1481341877</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J24" t="n">
-        <v>39292.2</v>
+        <v>184415.4</v>
       </c>
       <c r="K24" t="n">
-        <v>7042.5</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1433,11 +1553,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1002356</v>
+        <v>1002614</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1451,22 +1571,27 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1731616.879461225</v>
+        <v>277701.2985270091</v>
       </c>
       <c r="G25" t="n">
-        <v>74968824.89902717</v>
+        <v>12022832.68916933</v>
       </c>
       <c r="H25" t="n">
-        <v>814878531.5111649</v>
+        <v>130682964.0127101</v>
       </c>
       <c r="I25" t="n">
-        <v>2780480.964945345</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J25" t="n">
-        <v>184415.4</v>
+        <v>29574.9</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1509,17 +1634,22 @@
       <c r="K26" t="n">
         <v>0</v>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1004276</v>
+        <v>1004033</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1533,22 +1663,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1810875.868024719</v>
+        <v>587658.3105374104</v>
       </c>
       <c r="G27" t="n">
-        <v>78400272.87448196</v>
+        <v>25442148.03267848</v>
       </c>
       <c r="H27" t="n">
-        <v>852176879.0704561</v>
+        <v>276545087.3117226</v>
       </c>
       <c r="I27" t="n">
-        <v>2907748.209574067</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J27" t="n">
-        <v>192856.4</v>
+        <v>62585</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1556,11 +1691,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1004668</v>
+        <v>1004276</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1574,22 +1709,27 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>612366.5326089634</v>
+        <v>1810875.868024719</v>
       </c>
       <c r="G28" t="n">
-        <v>26511868.70589395</v>
+        <v>78400272.87448196</v>
       </c>
       <c r="H28" t="n">
-        <v>288172485.9336299</v>
+        <v>852176879.0704561</v>
       </c>
       <c r="I28" t="n">
-        <v>983285.3373539388</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J28" t="n">
-        <v>65216.4</v>
+        <v>192856.4</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1597,11 +1737,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1004861</v>
+        <v>1004668</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1615,22 +1755,27 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1537603.720653426</v>
+        <v>612366.5326089634</v>
       </c>
       <c r="G29" t="n">
-        <v>66569196.37652481</v>
+        <v>26511868.70589395</v>
       </c>
       <c r="H29" t="n">
-        <v>723578221.4839653</v>
+        <v>288172485.9336299</v>
       </c>
       <c r="I29" t="n">
-        <v>2468951.37580098</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J29" t="n">
-        <v>163753.2</v>
+        <v>65216.4</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1638,11 +1783,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1005170</v>
+        <v>1004708</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1656,22 +1801,27 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1371371.114335138</v>
+        <v>421084.8558261761</v>
       </c>
       <c r="G30" t="n">
-        <v>59372302.36180361</v>
+        <v>18230497.28753327</v>
       </c>
       <c r="H30" t="n">
-        <v>645351112.6283001</v>
+        <v>198157579.2123182</v>
       </c>
       <c r="I30" t="n">
-        <v>2202029.400678477</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J30" t="n">
-        <v>146049.6</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1679,11 +1829,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1005374</v>
+        <v>1004861</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1697,22 +1847,27 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4742991.773658318</v>
+        <v>1537603.720653426</v>
       </c>
       <c r="G31" t="n">
-        <v>205343643.8477954</v>
+        <v>66569196.37652481</v>
       </c>
       <c r="H31" t="n">
-        <v>2231996128.780385</v>
+        <v>723578221.4839653</v>
       </c>
       <c r="I31" t="n">
-        <v>7615886.920467395</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J31" t="n">
-        <v>505123.7</v>
+        <v>163753.2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1720,11 +1875,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1005661</v>
+        <v>1005019</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1738,22 +1893,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3961051.801275569</v>
+        <v>476191.782189138</v>
       </c>
       <c r="G32" t="n">
-        <v>171490242.6905188</v>
+        <v>20616303.04065915</v>
       </c>
       <c r="H32" t="n">
-        <v>1864024377.070856</v>
+        <v>224090250.4419473</v>
       </c>
       <c r="I32" t="n">
-        <v>6360315.185906462</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J32" t="n">
-        <v>421852.2000000001</v>
+        <v>50714.1</v>
       </c>
       <c r="K32" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1761,11 +1921,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1006469</v>
+        <v>1005170</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1779,22 +1939,27 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1698145.19168344</v>
+        <v>1371371.114335138</v>
       </c>
       <c r="G33" t="n">
-        <v>73519697.7105301</v>
+        <v>59372302.36180361</v>
       </c>
       <c r="H33" t="n">
-        <v>799127149.0275011</v>
+        <v>645351112.6283001</v>
       </c>
       <c r="I33" t="n">
-        <v>2726735.01696193</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J33" t="n">
-        <v>180850.7</v>
+        <v>146049.6</v>
       </c>
       <c r="K33" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1802,11 +1967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1006787</v>
+        <v>1005374</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1820,22 +1985,27 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1608509.576149028</v>
+        <v>4742991.773658318</v>
       </c>
       <c r="G34" t="n">
-        <v>69639002.82621673</v>
+        <v>205343643.8477954</v>
       </c>
       <c r="H34" t="n">
-        <v>756945682.8936601</v>
+        <v>2231996128.780385</v>
       </c>
       <c r="I34" t="n">
-        <v>2582805.880135695</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J34" t="n">
-        <v>171304.6</v>
+        <v>505123.7</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1843,11 +2013,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1012111</v>
+        <v>1006469</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1861,22 +2031,27 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>289559.6300821372</v>
+        <v>1698145.19168344</v>
       </c>
       <c r="G35" t="n">
-        <v>12536228.69061488</v>
+        <v>73519697.7105301</v>
       </c>
       <c r="H35" t="n">
-        <v>136263355.3327704</v>
+        <v>799127149.0275011</v>
       </c>
       <c r="I35" t="n">
-        <v>464949.8680738786</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J35" t="n">
-        <v>30837.8</v>
+        <v>180850.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1884,11 +2059,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1000037</v>
+        <v>1006787</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1898,26 +2073,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1042694.505323407</v>
+        <v>1608509.576149028</v>
       </c>
       <c r="G36" t="n">
-        <v>12790385.93196713</v>
+        <v>69639002.82621673</v>
       </c>
       <c r="H36" t="n">
-        <v>139025934.043121</v>
+        <v>756945682.8936601</v>
       </c>
       <c r="I36" t="n">
-        <v>474376.177911798</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J36" t="n">
-        <v>31463</v>
+        <v>171304.6</v>
       </c>
       <c r="K36" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1925,11 +2105,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1000261</v>
+        <v>1012111</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1939,26 +2119,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>17780899.09107479</v>
+        <v>289559.6300821372</v>
       </c>
       <c r="G37" t="n">
-        <v>218112362.1838507</v>
+        <v>12536228.69061488</v>
       </c>
       <c r="H37" t="n">
-        <v>2370786545.476638</v>
+        <v>136263355.3327704</v>
       </c>
       <c r="I37" t="n">
-        <v>8089459.479834151</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J37" t="n">
-        <v>536533.4</v>
+        <v>30837.8</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1966,11 +2151,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1000334</v>
+        <v>1000037</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1984,22 +2169,27 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>13759183.00333784</v>
+        <v>1042694.505323407</v>
       </c>
       <c r="G38" t="n">
-        <v>168779311.5076109</v>
+        <v>12790385.93196713</v>
       </c>
       <c r="H38" t="n">
-        <v>1834557733.778379</v>
+        <v>139025934.043121</v>
       </c>
       <c r="I38" t="n">
-        <v>6259770.825480588</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J38" t="n">
-        <v>415179.3</v>
+        <v>31463</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2007,11 +2197,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1000413</v>
+        <v>1000376</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2025,22 +2215,27 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11454351.91989284</v>
+        <v>3738783.752303317</v>
       </c>
       <c r="G39" t="n">
-        <v>140506716.8840188</v>
+        <v>45862414.02825402</v>
       </c>
       <c r="H39" t="n">
-        <v>1527246922.652379</v>
+        <v>498504500.307109</v>
       </c>
       <c r="I39" t="n">
-        <v>5211182.811911045</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J39" t="n">
-        <v>345631.7</v>
+        <v>112816.7</v>
       </c>
       <c r="K39" t="n">
-        <v>5631.899999999965</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2083,6 +2278,11 @@
       <c r="K40" t="n">
         <v>0</v>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2124,6 +2324,11 @@
       <c r="K41" t="n">
         <v>7042.5</v>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2165,17 +2370,22 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1003422</v>
+        <v>1002614</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2189,22 +2399,27 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2963528.473643273</v>
+        <v>980122.2300953261</v>
       </c>
       <c r="G43" t="n">
-        <v>36352615.94335748</v>
+        <v>12022832.68916933</v>
       </c>
       <c r="H43" t="n">
-        <v>395137129.819103</v>
+        <v>130682964.0127101</v>
       </c>
       <c r="I43" t="n">
-        <v>1348263.852242744</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J43" t="n">
-        <v>89423.60000000001</v>
+        <v>29574.9</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2212,11 +2427,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1004276</v>
+        <v>1003422</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2230,22 +2445,27 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6391326.593028421</v>
+        <v>2963528.473643273</v>
       </c>
       <c r="G44" t="n">
-        <v>78400272.87448196</v>
+        <v>36352615.94335748</v>
       </c>
       <c r="H44" t="n">
-        <v>852176879.0704561</v>
+        <v>395137129.819103</v>
       </c>
       <c r="I44" t="n">
-        <v>2907748.209574067</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J44" t="n">
-        <v>192856.4</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2253,11 +2473,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1004668</v>
+        <v>1004033</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2271,22 +2491,27 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2161293.644502224</v>
+        <v>2074088.154837919</v>
       </c>
       <c r="G45" t="n">
-        <v>26511868.70589395</v>
+        <v>25442148.03267848</v>
       </c>
       <c r="H45" t="n">
-        <v>288172485.9336299</v>
+        <v>276545087.3117226</v>
       </c>
       <c r="I45" t="n">
-        <v>983285.3373539388</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J45" t="n">
-        <v>65216.4</v>
+        <v>62585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2294,11 +2519,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1004861</v>
+        <v>1004276</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2312,22 +2537,27 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5426836.66112974</v>
+        <v>6391326.593028421</v>
       </c>
       <c r="G46" t="n">
-        <v>66569196.37652481</v>
+        <v>78400272.87448196</v>
       </c>
       <c r="H46" t="n">
-        <v>723578221.4839653</v>
+        <v>852176879.0704561</v>
       </c>
       <c r="I46" t="n">
-        <v>2468951.37580098</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J46" t="n">
-        <v>163753.2</v>
+        <v>192856.4</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2335,11 +2565,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1005170</v>
+        <v>1004668</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2353,22 +2583,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4840133.344712251</v>
+        <v>2161293.644502224</v>
       </c>
       <c r="G47" t="n">
-        <v>59372302.36180361</v>
+        <v>26511868.70589395</v>
       </c>
       <c r="H47" t="n">
-        <v>645351112.6283001</v>
+        <v>288172485.9336299</v>
       </c>
       <c r="I47" t="n">
-        <v>2202029.400678477</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J47" t="n">
-        <v>146049.6</v>
+        <v>65216.4</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2376,11 +2611,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1005374</v>
+        <v>1004708</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2394,22 +2629,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>16739970.96585288</v>
+        <v>1486181.844092386</v>
       </c>
       <c r="G48" t="n">
-        <v>205343643.8477954</v>
+        <v>18230497.28753327</v>
       </c>
       <c r="H48" t="n">
-        <v>2231996128.780385</v>
+        <v>198157579.2123182</v>
       </c>
       <c r="I48" t="n">
-        <v>7615886.920467395</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J48" t="n">
-        <v>505123.7</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2417,11 +2657,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1005661</v>
+        <v>1004861</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2435,22 +2675,27 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>13980182.82803142</v>
+        <v>5426836.66112974</v>
       </c>
       <c r="G49" t="n">
-        <v>171490242.6905188</v>
+        <v>66569196.37652481</v>
       </c>
       <c r="H49" t="n">
-        <v>1864024377.070856</v>
+        <v>723578221.4839653</v>
       </c>
       <c r="I49" t="n">
-        <v>6360315.185906462</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J49" t="n">
-        <v>421852.2000000001</v>
+        <v>163753.2</v>
       </c>
       <c r="K49" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2458,11 +2703,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1006469</v>
+        <v>1005019</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2476,22 +2721,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5993453.617706259</v>
+        <v>1680676.878314605</v>
       </c>
       <c r="G50" t="n">
-        <v>73519697.7105301</v>
+        <v>20616303.04065915</v>
       </c>
       <c r="H50" t="n">
-        <v>799127149.0275011</v>
+        <v>224090250.4419473</v>
       </c>
       <c r="I50" t="n">
-        <v>2726735.01696193</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J50" t="n">
-        <v>180850.7</v>
+        <v>50714.1</v>
       </c>
       <c r="K50" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2499,11 +2749,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1006787</v>
+        <v>1005170</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2517,22 +2767,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5677092.62170245</v>
+        <v>4840133.344712251</v>
       </c>
       <c r="G51" t="n">
-        <v>69639002.82621673</v>
+        <v>59372302.36180361</v>
       </c>
       <c r="H51" t="n">
-        <v>756945682.8936601</v>
+        <v>645351112.6283001</v>
       </c>
       <c r="I51" t="n">
-        <v>2582805.880135695</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J51" t="n">
-        <v>171304.6</v>
+        <v>146049.6</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2540,11 +2795,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1012111</v>
+        <v>1005374</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2558,22 +2813,27 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1021975.164995778</v>
+        <v>16739970.96585288</v>
       </c>
       <c r="G52" t="n">
-        <v>12536228.69061488</v>
+        <v>205343643.8477954</v>
       </c>
       <c r="H52" t="n">
-        <v>136263355.3327704</v>
+        <v>2231996128.780385</v>
       </c>
       <c r="I52" t="n">
-        <v>464949.8680738786</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J52" t="n">
-        <v>30837.8</v>
+        <v>505123.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2581,11 +2841,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1000037</v>
+        <v>1006469</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2595,26 +2855,31 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5213472.526617037</v>
+        <v>5993453.617706259</v>
       </c>
       <c r="G53" t="n">
-        <v>8236843.803310769</v>
+        <v>73519697.7105301</v>
       </c>
       <c r="H53" t="n">
-        <v>89530910.90555184</v>
+        <v>799127149.0275011</v>
       </c>
       <c r="I53" t="n">
-        <v>474376.177911798</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J53" t="n">
-        <v>31463</v>
+        <v>180850.7</v>
       </c>
       <c r="K53" t="n">
-        <v>7909.900000000001</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2622,11 +2887,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1000261</v>
+        <v>1006787</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2636,26 +2901,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>88904495.45537393</v>
+        <v>5677092.62170245</v>
       </c>
       <c r="G54" t="n">
-        <v>141369687.3666159</v>
+        <v>69639002.82621673</v>
       </c>
       <c r="H54" t="n">
-        <v>1536627036.593651</v>
+        <v>756945682.8936601</v>
       </c>
       <c r="I54" t="n">
-        <v>8089459.479834151</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J54" t="n">
-        <v>536533.4</v>
+        <v>171304.6</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2663,11 +2933,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1000334</v>
+        <v>1012111</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2677,26 +2947,31 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>68795915.01668921</v>
+        <v>1021975.164995778</v>
       </c>
       <c r="G55" t="n">
-        <v>109394434.4230767</v>
+        <v>12536228.69061488</v>
       </c>
       <c r="H55" t="n">
-        <v>1189069939.381269</v>
+        <v>136263355.3327704</v>
       </c>
       <c r="I55" t="n">
-        <v>6259770.825480588</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J55" t="n">
-        <v>415179.3</v>
+        <v>30837.8</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2704,11 +2979,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000413</v>
+        <v>1000037</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2722,22 +2997,27 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>57271759.59946421</v>
+        <v>5213472.526617037</v>
       </c>
       <c r="G56" t="n">
-        <v>91069531.50165854</v>
+        <v>7482611.63513275</v>
       </c>
       <c r="H56" t="n">
-        <v>989886211.9745494</v>
+        <v>81332735.16448642</v>
       </c>
       <c r="I56" t="n">
-        <v>5211182.811911045</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J56" t="n">
-        <v>345631.7</v>
+        <v>31463</v>
       </c>
       <c r="K56" t="n">
-        <v>5631.899999999965</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2745,11 +3025,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000466</v>
+        <v>1000376</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2763,22 +3043,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44713393.60385733</v>
+        <v>18693918.76151659</v>
       </c>
       <c r="G57" t="n">
-        <v>65024434.78383995</v>
+        <v>23352160.43244879</v>
       </c>
       <c r="H57" t="n">
-        <v>706787334.606956</v>
+        <v>253827830.7874869</v>
       </c>
       <c r="I57" t="n">
-        <v>4068491.519035055</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J57" t="n">
-        <v>269842.7</v>
+        <v>112816.7</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2786,11 +3071,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1002346</v>
+        <v>1000466</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2804,22 +3089,27 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6510784.261206559</v>
+        <v>44713393.60385733</v>
       </c>
       <c r="G58" t="n">
-        <v>10286486.16115588</v>
+        <v>58866655.87494021</v>
       </c>
       <c r="H58" t="n">
-        <v>111809632.1864769</v>
+        <v>639854955.1623936</v>
       </c>
       <c r="I58" t="n">
-        <v>592419.1481341877</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J58" t="n">
-        <v>39292.2</v>
+        <v>269842.7</v>
       </c>
       <c r="K58" t="n">
-        <v>7042.5</v>
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2827,11 +3117,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1002356</v>
+        <v>1002346</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2845,22 +3135,27 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>30557944.93166868</v>
+        <v>6510784.261206559</v>
       </c>
       <c r="G59" t="n">
-        <v>44438879.20790802</v>
+        <v>9344572.128848586</v>
       </c>
       <c r="H59" t="n">
-        <v>483031295.7381306</v>
+        <v>101571436.1831368</v>
       </c>
       <c r="I59" t="n">
-        <v>2780480.964945345</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J59" t="n">
-        <v>184415.4</v>
+        <v>39292.2</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2868,11 +3163,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1003422</v>
+        <v>1002356</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2886,22 +3181,27 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>14817642.36821636</v>
+        <v>30557944.93166868</v>
       </c>
       <c r="G60" t="n">
-        <v>21548550.49381062</v>
+        <v>40230541.31106549</v>
       </c>
       <c r="H60" t="n">
-        <v>234223374.9327242</v>
+        <v>437288492.5115814</v>
       </c>
       <c r="I60" t="n">
-        <v>1348263.852242744</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J60" t="n">
-        <v>89423.60000000001</v>
+        <v>184415.4</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2909,11 +3209,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1004276</v>
+        <v>1002614</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2927,22 +3227,27 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>31956632.9651421</v>
+        <v>4900611.150476631</v>
       </c>
       <c r="G61" t="n">
-        <v>46472920.7217618</v>
+        <v>6121769.291014803</v>
       </c>
       <c r="H61" t="n">
-        <v>505140442.6278456</v>
+        <v>66540970.55450872</v>
       </c>
       <c r="I61" t="n">
-        <v>2907748.209574067</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J61" t="n">
-        <v>192856.4</v>
+        <v>29574.9</v>
       </c>
       <c r="K61" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2950,11 +3255,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1004668</v>
+        <v>1003422</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2968,22 +3273,27 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10806468.22251112</v>
+        <v>14817642.36821636</v>
       </c>
       <c r="G62" t="n">
-        <v>15715302.09502358</v>
+        <v>19507914.38233572</v>
       </c>
       <c r="H62" t="n">
-        <v>170818501.032865</v>
+        <v>212042547.634084</v>
       </c>
       <c r="I62" t="n">
-        <v>983285.3373539388</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J62" t="n">
-        <v>65216.4</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2991,11 +3301,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1004861</v>
+        <v>1004033</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3009,22 +3319,27 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>27134183.3056487</v>
+        <v>10370440.7741896</v>
       </c>
       <c r="G63" t="n">
-        <v>40269426.0091321</v>
+        <v>12954597.68513711</v>
       </c>
       <c r="H63" t="n">
-        <v>437711152.2731751</v>
+        <v>140810844.4036642</v>
       </c>
       <c r="I63" t="n">
-        <v>2468951.37580098</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J63" t="n">
-        <v>163753.2</v>
+        <v>62585</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3032,11 +3347,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1005170</v>
+        <v>1004276</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3050,22 +3365,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24200666.72356125</v>
+        <v>31956632.9651421</v>
       </c>
       <c r="G64" t="n">
-        <v>35193809.91372348</v>
+        <v>42071960.1904362</v>
       </c>
       <c r="H64" t="n">
-        <v>382541412.1056901</v>
+        <v>457303915.113437</v>
       </c>
       <c r="I64" t="n">
-        <v>2202029.400678477</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J64" t="n">
-        <v>146049.6</v>
+        <v>192856.4</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3073,11 +3393,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1005374</v>
+        <v>1004668</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3091,22 +3411,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>83699854.82926442</v>
+        <v>10806468.22251112</v>
       </c>
       <c r="G65" t="n">
-        <v>121720480.4444291</v>
+        <v>14227071.46127151</v>
       </c>
       <c r="H65" t="n">
-        <v>1323048700.482925</v>
+        <v>154642081.1007773</v>
       </c>
       <c r="I65" t="n">
-        <v>7615886.920467395</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J65" t="n">
-        <v>505123.7</v>
+        <v>65216.4</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3114,11 +3439,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1005661</v>
+        <v>1004708</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3132,22 +3457,27 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>69900914.1401571</v>
+        <v>7430909.220461931</v>
       </c>
       <c r="G66" t="n">
-        <v>111151526.4556551</v>
+        <v>17438907.65571034</v>
       </c>
       <c r="H66" t="n">
-        <v>1208168765.822338</v>
+        <v>189553344.0838081</v>
       </c>
       <c r="I66" t="n">
-        <v>6360315.185906462</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J66" t="n">
-        <v>421852.2000000001</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3155,11 +3485,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1006469</v>
+        <v>1004861</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3173,22 +3503,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>29967268.08853129</v>
+        <v>27134183.3056487</v>
       </c>
       <c r="G67" t="n">
-        <v>43579887.64477159</v>
+        <v>36485792.08944333</v>
       </c>
       <c r="H67" t="n">
-        <v>473694430.9214303</v>
+        <v>396584696.624384</v>
       </c>
       <c r="I67" t="n">
-        <v>2726735.01696193</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J67" t="n">
-        <v>180850.7</v>
+        <v>163753.2</v>
       </c>
       <c r="K67" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3196,11 +3531,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1006787</v>
+        <v>1005019</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3214,22 +3549,27 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>28385463.10851225</v>
+        <v>8403384.391573023</v>
       </c>
       <c r="G68" t="n">
-        <v>41279548.38456549</v>
+        <v>10497380.61831767</v>
       </c>
       <c r="H68" t="n">
-        <v>448690743.3104945</v>
+        <v>114101963.2425834</v>
       </c>
       <c r="I68" t="n">
-        <v>2582805.880135695</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J68" t="n">
-        <v>171304.6</v>
+        <v>50714.1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3237,11 +3577,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1012111</v>
+        <v>1005170</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3255,22 +3595,27 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5109875.824978892</v>
+        <v>24200666.72356125</v>
       </c>
       <c r="G69" t="n">
-        <v>8073169.813359717</v>
+        <v>31860975.0935366</v>
       </c>
       <c r="H69" t="n">
-        <v>87751845.79738823</v>
+        <v>346314946.6688761</v>
       </c>
       <c r="I69" t="n">
-        <v>464949.8680738786</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J69" t="n">
-        <v>30837.8</v>
+        <v>146049.6</v>
       </c>
       <c r="K69" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3278,11 +3623,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1000037</v>
+        <v>1005374</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3292,26 +3637,31 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>17378241.75539013</v>
+        <v>83699854.82926442</v>
       </c>
       <c r="G70" t="n">
-        <v>8594967.446932975</v>
+        <v>110193616.5854275</v>
       </c>
       <c r="H70" t="n">
-        <v>93423559.2057932</v>
+        <v>1197756702.015516</v>
       </c>
       <c r="I70" t="n">
-        <v>474376.177911798</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J70" t="n">
-        <v>31463</v>
+        <v>505123.7</v>
       </c>
       <c r="K70" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3319,11 +3669,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000261</v>
+        <v>1006469</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3333,26 +3683,31 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>296348318.1845798</v>
+        <v>29967268.08853129</v>
       </c>
       <c r="G71" t="n">
-        <v>147457959.8630248</v>
+        <v>39452895.78573758</v>
       </c>
       <c r="H71" t="n">
-        <v>1602803911.554618</v>
+        <v>428835823.7580172</v>
       </c>
       <c r="I71" t="n">
-        <v>8089459.479834151</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J71" t="n">
-        <v>536533.4</v>
+        <v>180850.7</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3360,11 +3715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1000334</v>
+        <v>1006787</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3374,26 +3729,31 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>229319716.7222974</v>
+        <v>28385463.10851225</v>
       </c>
       <c r="G72" t="n">
-        <v>114105650.3758363</v>
+        <v>37370397.41299017</v>
       </c>
       <c r="H72" t="n">
-        <v>1240278808.433003</v>
+        <v>406199971.8803279</v>
       </c>
       <c r="I72" t="n">
-        <v>6259770.825480588</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J72" t="n">
-        <v>415179.3</v>
+        <v>171304.6</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3401,11 +3761,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1000413</v>
+        <v>1012111</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3415,26 +3775,31 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>190905865.3315473</v>
+        <v>5109875.824978892</v>
       </c>
       <c r="G73" t="n">
-        <v>94991561.28209174</v>
+        <v>7333924.962079162</v>
       </c>
       <c r="H73" t="n">
-        <v>1032516970.457519</v>
+        <v>79716575.6747735</v>
       </c>
       <c r="I73" t="n">
-        <v>5211182.811911045</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J73" t="n">
-        <v>345631.7</v>
+        <v>30837.8</v>
       </c>
       <c r="K73" t="n">
-        <v>5631.899999999965</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3442,11 +3807,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1000466</v>
+        <v>1000037</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3460,22 +3825,27 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>149044645.3461911</v>
+        <v>17378241.75539013</v>
       </c>
       <c r="G74" t="n">
-        <v>68211907.07716544</v>
+        <v>7807942.575790696</v>
       </c>
       <c r="H74" t="n">
-        <v>741433772.5778853</v>
+        <v>84868941.04120322</v>
       </c>
       <c r="I74" t="n">
-        <v>4068491.519035055</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J74" t="n">
-        <v>269842.7</v>
+        <v>31463</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3483,11 +3853,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1002346</v>
+        <v>1000376</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3501,22 +3871,27 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>21702614.20402186</v>
+        <v>62313062.53838862</v>
       </c>
       <c r="G75" t="n">
-        <v>10733724.68990178</v>
+        <v>24581221.50784083</v>
       </c>
       <c r="H75" t="n">
-        <v>116670920.5424107</v>
+        <v>267187190.3026177</v>
       </c>
       <c r="I75" t="n">
-        <v>592419.1481341877</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J75" t="n">
-        <v>39292.2</v>
+        <v>112816.7</v>
       </c>
       <c r="K75" t="n">
-        <v>7042.5</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3524,11 +3899,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1002356</v>
+        <v>1000466</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3542,22 +3917,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>101859816.4388956</v>
+        <v>149044645.3461911</v>
       </c>
       <c r="G76" t="n">
-        <v>46617255.63966821</v>
+        <v>61752276.26096668</v>
       </c>
       <c r="H76" t="n">
-        <v>506709300.4311762</v>
+        <v>671220394.1409422</v>
       </c>
       <c r="I76" t="n">
-        <v>2780480.964945345</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J76" t="n">
-        <v>184415.4</v>
+        <v>269842.7</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3565,11 +3945,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1003422</v>
+        <v>1002346</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3583,22 +3963,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>49392141.22738788</v>
+        <v>21702614.20402186</v>
       </c>
       <c r="G77" t="n">
-        <v>22604851.98860526</v>
+        <v>9750857.873581132</v>
       </c>
       <c r="H77" t="n">
-        <v>245704912.9196224</v>
+        <v>105987585.5824036</v>
       </c>
       <c r="I77" t="n">
-        <v>1348263.852242744</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J77" t="n">
-        <v>89423.60000000001</v>
+        <v>39292.2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3606,11 +3991,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1004276</v>
+        <v>1002356</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3624,22 +4009,27 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>106522109.883807</v>
+        <v>101859816.4388956</v>
       </c>
       <c r="G78" t="n">
-        <v>48751005.07086777</v>
+        <v>42202626.66945104</v>
       </c>
       <c r="H78" t="n">
-        <v>529902229.0311714</v>
+        <v>458724202.9288157</v>
       </c>
       <c r="I78" t="n">
-        <v>2907748.209574067</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J78" t="n">
-        <v>192856.4</v>
+        <v>184415.4</v>
       </c>
       <c r="K78" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3647,11 +4037,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1004668</v>
+        <v>1002614</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3665,22 +4055,27 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>36021560.74170373</v>
+        <v>16335370.50158877</v>
       </c>
       <c r="G79" t="n">
-        <v>16485660.04085807</v>
+        <v>6443967.674752424</v>
       </c>
       <c r="H79" t="n">
-        <v>179191956.9658486</v>
+        <v>70043126.89948286</v>
       </c>
       <c r="I79" t="n">
-        <v>983285.3373539388</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J79" t="n">
-        <v>65216.4</v>
+        <v>29574.9</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3688,11 +4083,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1004861</v>
+        <v>1003422</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3706,22 +4101,27 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>90447277.68549566</v>
+        <v>49392141.22738788</v>
       </c>
       <c r="G80" t="n">
-        <v>42187017.72385268</v>
+        <v>20464184.69519532</v>
       </c>
       <c r="H80" t="n">
-        <v>458554540.4766595</v>
+        <v>222436790.1651665</v>
       </c>
       <c r="I80" t="n">
-        <v>2468951.37580098</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J80" t="n">
-        <v>163753.2</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3729,11 +4129,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1005170</v>
+        <v>1004033</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3747,22 +4147,27 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>80668889.07853751</v>
+        <v>34568135.91396532</v>
       </c>
       <c r="G81" t="n">
-        <v>36918996.67420013</v>
+        <v>13636418.6159338</v>
       </c>
       <c r="H81" t="n">
-        <v>401293442.110871</v>
+        <v>148221941.4775413</v>
       </c>
       <c r="I81" t="n">
-        <v>2202029.400678477</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J81" t="n">
-        <v>146049.6</v>
+        <v>62585</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3770,11 +4175,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1005374</v>
+        <v>1004276</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3788,22 +4193,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>278999516.0975481</v>
+        <v>106522109.883807</v>
       </c>
       <c r="G82" t="n">
-        <v>127687170.6622932</v>
+        <v>44134311.18016347</v>
       </c>
       <c r="H82" t="n">
-        <v>1387904028.93797</v>
+        <v>479720773.697429</v>
       </c>
       <c r="I82" t="n">
-        <v>7615886.920467395</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J82" t="n">
-        <v>505123.7</v>
+        <v>192856.4</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3811,11 +4221,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1005661</v>
+        <v>1004668</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3829,22 +4239,27 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>233003047.133857</v>
+        <v>36021560.74170373</v>
       </c>
       <c r="G83" t="n">
-        <v>115938413.8999125</v>
+        <v>14924476.92505933</v>
       </c>
       <c r="H83" t="n">
-        <v>1260200151.086005</v>
+        <v>162222575.272384</v>
       </c>
       <c r="I83" t="n">
-        <v>6360315.185906462</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J83" t="n">
-        <v>421852.2000000001</v>
+        <v>65216.4</v>
       </c>
       <c r="K83" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3852,11 +4267,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1006469</v>
+        <v>1004708</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3870,22 +4285,27 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>99890893.62843764</v>
+        <v>24769697.40153977</v>
       </c>
       <c r="G84" t="n">
-        <v>45716156.64696628</v>
+        <v>17780847.02150859</v>
       </c>
       <c r="H84" t="n">
-        <v>496914746.1626769</v>
+        <v>193270076.3207455</v>
       </c>
       <c r="I84" t="n">
-        <v>2726735.01696193</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J84" t="n">
-        <v>180850.7</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3893,11 +4313,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1006787</v>
+        <v>1004861</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3911,22 +4331,27 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>94618210.36170751</v>
+        <v>90447277.68549566</v>
       </c>
       <c r="G85" t="n">
-        <v>43303055.6583187</v>
+        <v>38223210.7603692</v>
       </c>
       <c r="H85" t="n">
-        <v>470685387.5904207</v>
+        <v>415469682.1779261</v>
       </c>
       <c r="I85" t="n">
-        <v>2582805.880135695</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J85" t="n">
-        <v>171304.6</v>
+        <v>163753.2</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3934,11 +4359,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1012111</v>
+        <v>1005019</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3952,22 +4377,27 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>17032919.4165963</v>
+        <v>28011281.30524341</v>
       </c>
       <c r="G86" t="n">
-        <v>8424177.196549268</v>
+        <v>11049874.33507123</v>
       </c>
       <c r="H86" t="n">
-        <v>91567143.44075292</v>
+        <v>120107329.7290351</v>
       </c>
       <c r="I86" t="n">
-        <v>464949.8680738786</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J86" t="n">
-        <v>30837.8</v>
+        <v>50714.1</v>
       </c>
       <c r="K86" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3975,11 +4405,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1000037</v>
+        <v>1005170</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3989,26 +4419,31 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>265887.0988574689</v>
+        <v>80668889.07853751</v>
       </c>
       <c r="G87" t="n">
-        <v>11511347.33877042</v>
+        <v>33422787.59812173</v>
       </c>
       <c r="H87" t="n">
-        <v>125123340.6388089</v>
+        <v>363291169.5448014</v>
       </c>
       <c r="I87" t="n">
-        <v>474376.177911798</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J87" t="n">
-        <v>31463</v>
+        <v>146049.6</v>
       </c>
       <c r="K87" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4016,11 +4451,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1000261</v>
+        <v>1005374</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4030,26 +4465,31 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4534129.268224071</v>
+        <v>278999516.0975481</v>
       </c>
       <c r="G88" t="n">
-        <v>196301125.9654657</v>
+        <v>115595264.4572622</v>
       </c>
       <c r="H88" t="n">
-        <v>2133707890.928975</v>
+        <v>1256470265.839806</v>
       </c>
       <c r="I88" t="n">
-        <v>8089459.479834151</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J88" t="n">
-        <v>536533.4</v>
+        <v>505123.7</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4057,11 +4497,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1000334</v>
+        <v>1006469</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4071,26 +4511,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3508591.66585115</v>
+        <v>99890893.62843764</v>
       </c>
       <c r="G89" t="n">
-        <v>151901380.3568498</v>
+        <v>41386861.2654306</v>
       </c>
       <c r="H89" t="n">
-        <v>1651101960.400541</v>
+        <v>449857187.667724</v>
       </c>
       <c r="I89" t="n">
-        <v>6259770.825480588</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J89" t="n">
-        <v>415179.3</v>
+        <v>180850.7</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4098,11 +4543,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1000413</v>
+        <v>1006787</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4112,26 +4557,31 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2920859.739572675</v>
+        <v>94618210.36170751</v>
       </c>
       <c r="G90" t="n">
-        <v>126456045.195617</v>
+        <v>39202279.63911714</v>
       </c>
       <c r="H90" t="n">
-        <v>1374522230.387141</v>
+        <v>426111735.207795</v>
       </c>
       <c r="I90" t="n">
-        <v>5211182.811911045</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J90" t="n">
-        <v>345631.7</v>
+        <v>171304.6</v>
       </c>
       <c r="K90" t="n">
-        <v>5631.899999999965</v>
+        <v>0</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4139,11 +4589,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1000466</v>
+        <v>1012111</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4153,26 +4603,31 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2280383.073796724</v>
+        <v>17032919.4165963</v>
       </c>
       <c r="G91" t="n">
-        <v>98727173.07731698</v>
+        <v>7652791.264778257</v>
       </c>
       <c r="H91" t="n">
-        <v>1073121446.492576</v>
+        <v>83182513.74758975</v>
       </c>
       <c r="I91" t="n">
-        <v>4068491.519035055</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J91" t="n">
-        <v>269842.7</v>
+        <v>30837.8</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4180,11 +4635,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1002346</v>
+        <v>1000037</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4198,22 +4653,27 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>332049.9973215345</v>
+        <v>265887.0988574689</v>
       </c>
       <c r="G92" t="n">
-        <v>14375811.64874408</v>
+        <v>11511347.33877042</v>
       </c>
       <c r="H92" t="n">
-        <v>156258822.2689574</v>
+        <v>125123340.6388089</v>
       </c>
       <c r="I92" t="n">
-        <v>592419.1481341877</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J92" t="n">
-        <v>39292.2</v>
+        <v>31463</v>
       </c>
       <c r="K92" t="n">
-        <v>7042.5</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4221,11 +4681,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1002356</v>
+        <v>1000376</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4239,22 +4699,27 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1558455.191515103</v>
+        <v>953389.8568373459</v>
       </c>
       <c r="G93" t="n">
-        <v>67471942.40912445</v>
+        <v>41276172.62542862</v>
       </c>
       <c r="H93" t="n">
-        <v>733390678.3600484</v>
+        <v>448654050.2763981</v>
       </c>
       <c r="I93" t="n">
-        <v>2780480.964945345</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J93" t="n">
-        <v>184415.4</v>
+        <v>112816.7</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4262,11 +4727,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1003422</v>
+        <v>1000466</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4280,22 +4745,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>755699.7607790346</v>
+        <v>2280383.073796724</v>
       </c>
       <c r="G94" t="n">
-        <v>32717354.34902173</v>
+        <v>98727173.07731698</v>
       </c>
       <c r="H94" t="n">
-        <v>355623416.8371927</v>
+        <v>1073121446.492576</v>
       </c>
       <c r="I94" t="n">
-        <v>1348263.852242744</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J94" t="n">
-        <v>89423.60000000001</v>
+        <v>269842.7</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4303,11 +4773,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1004276</v>
+        <v>1002346</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4321,22 +4791,27 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1629788.281222248</v>
+        <v>332049.9973215345</v>
       </c>
       <c r="G95" t="n">
-        <v>70560245.58703376</v>
+        <v>14375811.64874408</v>
       </c>
       <c r="H95" t="n">
-        <v>766959191.1634105</v>
+        <v>156258822.2689574</v>
       </c>
       <c r="I95" t="n">
-        <v>2907748.209574067</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J95" t="n">
-        <v>192856.4</v>
+        <v>39292.2</v>
       </c>
       <c r="K95" t="n">
-        <v>244.2999999999884</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4344,11 +4819,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1004668</v>
+        <v>1002356</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4362,22 +4837,27 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>551129.8793480671</v>
+        <v>1558455.191515103</v>
       </c>
       <c r="G96" t="n">
-        <v>23860681.83530455</v>
+        <v>67471942.40912445</v>
       </c>
       <c r="H96" t="n">
-        <v>259355237.3402669</v>
+        <v>733390678.3600484</v>
       </c>
       <c r="I96" t="n">
-        <v>983285.3373539388</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J96" t="n">
-        <v>65216.4</v>
+        <v>184415.4</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4385,11 +4865,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1004861</v>
+        <v>1002614</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4403,22 +4883,27 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1383843.348588084</v>
+        <v>249931.1686743082</v>
       </c>
       <c r="G97" t="n">
-        <v>59912276.73887233</v>
+        <v>10820549.4202524</v>
       </c>
       <c r="H97" t="n">
-        <v>651220399.3355688</v>
+        <v>117614667.6114391</v>
       </c>
       <c r="I97" t="n">
-        <v>2468951.37580098</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J97" t="n">
-        <v>163753.2</v>
+        <v>29574.9</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4426,11 +4911,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1005170</v>
+        <v>1003422</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4444,22 +4929,27 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1234234.002901624</v>
+        <v>755699.7607790346</v>
       </c>
       <c r="G98" t="n">
-        <v>53435072.12562324</v>
+        <v>32717354.34902173</v>
       </c>
       <c r="H98" t="n">
-        <v>580816001.3654701</v>
+        <v>355623416.8371927</v>
       </c>
       <c r="I98" t="n">
-        <v>2202029.400678477</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J98" t="n">
-        <v>146049.6</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4467,11 +4957,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1005374</v>
+        <v>1004033</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4485,22 +4975,27 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4268692.596292485</v>
+        <v>528892.4794836694</v>
       </c>
       <c r="G99" t="n">
-        <v>184809279.4630159</v>
+        <v>22897933.22941063</v>
       </c>
       <c r="H99" t="n">
-        <v>2008796515.902346</v>
+        <v>248890578.5805503</v>
       </c>
       <c r="I99" t="n">
-        <v>7615886.920467395</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J99" t="n">
-        <v>505123.7</v>
+        <v>62585</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4508,11 +5003,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1005661</v>
+        <v>1004276</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4526,22 +5021,27 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3564946.621148012</v>
+        <v>1629788.281222248</v>
       </c>
       <c r="G100" t="n">
-        <v>154341218.4214669</v>
+        <v>70560245.58703376</v>
       </c>
       <c r="H100" t="n">
-        <v>1677621939.36377</v>
+        <v>766959191.1634105</v>
       </c>
       <c r="I100" t="n">
-        <v>6360315.185906462</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J100" t="n">
-        <v>421852.2000000001</v>
+        <v>192856.4</v>
       </c>
       <c r="K100" t="n">
-        <v>43522.39999999997</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4549,11 +5049,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1006469</v>
+        <v>1004668</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4567,22 +5067,27 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1528330.672515096</v>
+        <v>551129.8793480671</v>
       </c>
       <c r="G101" t="n">
-        <v>66167727.93947709</v>
+        <v>23860681.83530455</v>
       </c>
       <c r="H101" t="n">
-        <v>719214434.124751</v>
+        <v>259355237.3402669</v>
       </c>
       <c r="I101" t="n">
-        <v>2726735.01696193</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J101" t="n">
-        <v>180850.7</v>
+        <v>65216.4</v>
       </c>
       <c r="K101" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4590,11 +5095,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1006787</v>
+        <v>1004708</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4608,22 +5113,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1447658.618534125</v>
+        <v>378976.3702435585</v>
       </c>
       <c r="G102" t="n">
-        <v>62675102.54359505</v>
+        <v>16407447.55877995</v>
       </c>
       <c r="H102" t="n">
-        <v>681251114.6042941</v>
+        <v>178341821.2910864</v>
       </c>
       <c r="I102" t="n">
-        <v>2582805.880135695</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J102" t="n">
-        <v>171304.6</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4631,11 +5141,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1012111</v>
+        <v>1004861</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4649,22 +5159,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>260603.6670739235</v>
+        <v>1383843.348588084</v>
       </c>
       <c r="G103" t="n">
-        <v>11282605.82155339</v>
+        <v>59912276.73887233</v>
       </c>
       <c r="H103" t="n">
-        <v>122637019.7994934</v>
+        <v>651220399.3355688</v>
       </c>
       <c r="I103" t="n">
-        <v>464949.8680738786</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J103" t="n">
-        <v>30837.8</v>
+        <v>163753.2</v>
       </c>
       <c r="K103" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4672,11 +5187,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1000037</v>
+        <v>1005019</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4686,26 +5201,31 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>938425.0547910668</v>
+        <v>428572.6039702242</v>
       </c>
       <c r="G104" t="n">
-        <v>11511347.33877042</v>
+        <v>18554672.73659324</v>
       </c>
       <c r="H104" t="n">
-        <v>125123340.6388089</v>
+        <v>201681225.3977526</v>
       </c>
       <c r="I104" t="n">
-        <v>474376.177911798</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J104" t="n">
-        <v>31463</v>
+        <v>50714.1</v>
       </c>
       <c r="K104" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4713,11 +5233,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1000261</v>
+        <v>1005170</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4727,26 +5247,31 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16002809.18196731</v>
+        <v>1234234.002901624</v>
       </c>
       <c r="G105" t="n">
-        <v>196301125.9654657</v>
+        <v>53435072.12562324</v>
       </c>
       <c r="H105" t="n">
-        <v>2133707890.928975</v>
+        <v>580816001.3654701</v>
       </c>
       <c r="I105" t="n">
-        <v>8089459.479834151</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J105" t="n">
-        <v>536533.4</v>
+        <v>146049.6</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4754,11 +5279,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1000334</v>
+        <v>1005374</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4768,26 +5293,31 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12383264.70300406</v>
+        <v>4268692.596292485</v>
       </c>
       <c r="G106" t="n">
-        <v>151901380.3568498</v>
+        <v>184809279.4630159</v>
       </c>
       <c r="H106" t="n">
-        <v>1651101960.400541</v>
+        <v>2008796515.902346</v>
       </c>
       <c r="I106" t="n">
-        <v>6259770.825480588</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J106" t="n">
-        <v>415179.3</v>
+        <v>505123.7</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4795,11 +5325,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1000413</v>
+        <v>1006469</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4809,26 +5339,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10308916.72790356</v>
+        <v>1528330.672515096</v>
       </c>
       <c r="G107" t="n">
-        <v>126456045.195617</v>
+        <v>66167727.93947709</v>
       </c>
       <c r="H107" t="n">
-        <v>1374522230.387141</v>
+        <v>719214434.124751</v>
       </c>
       <c r="I107" t="n">
-        <v>5211182.811911045</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J107" t="n">
-        <v>345631.7</v>
+        <v>180850.7</v>
       </c>
       <c r="K107" t="n">
-        <v>5631.899999999965</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4836,11 +5371,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1000466</v>
+        <v>1006787</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4850,26 +5385,31 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8048410.848694321</v>
+        <v>1447658.618534125</v>
       </c>
       <c r="G108" t="n">
-        <v>98727173.07731698</v>
+        <v>62675102.54359505</v>
       </c>
       <c r="H108" t="n">
-        <v>1073121446.492576</v>
+        <v>681251114.6042941</v>
       </c>
       <c r="I108" t="n">
-        <v>4068491.519035055</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J108" t="n">
-        <v>269842.7</v>
+        <v>171304.6</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4877,11 +5417,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1002346</v>
+        <v>1012111</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4891,26 +5431,31 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1171941.167017181</v>
+        <v>260603.6670739235</v>
       </c>
       <c r="G109" t="n">
-        <v>14375811.64874408</v>
+        <v>11282605.82155339</v>
       </c>
       <c r="H109" t="n">
-        <v>156258822.2689574</v>
+        <v>122637019.7994934</v>
       </c>
       <c r="I109" t="n">
-        <v>592419.1481341877</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J109" t="n">
-        <v>39292.2</v>
+        <v>30837.8</v>
       </c>
       <c r="K109" t="n">
-        <v>7042.5</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4918,11 +5463,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1002356</v>
+        <v>1000037</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4936,22 +5481,27 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5500430.087700362</v>
+        <v>938425.0547910668</v>
       </c>
       <c r="G110" t="n">
-        <v>67471942.40912445</v>
+        <v>11511347.33877042</v>
       </c>
       <c r="H110" t="n">
-        <v>733390678.3600484</v>
+        <v>125123340.6388089</v>
       </c>
       <c r="I110" t="n">
-        <v>2780480.964945345</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J110" t="n">
-        <v>184415.4</v>
+        <v>31463</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4959,11 +5509,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1003422</v>
+        <v>1000376</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4977,22 +5527,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2667175.626278945</v>
+        <v>3364905.377072986</v>
       </c>
       <c r="G111" t="n">
-        <v>32717354.34902173</v>
+        <v>41276172.62542862</v>
       </c>
       <c r="H111" t="n">
-        <v>355623416.8371927</v>
+        <v>448654050.2763981</v>
       </c>
       <c r="I111" t="n">
-        <v>1348263.852242744</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J111" t="n">
-        <v>89423.60000000001</v>
+        <v>112816.7</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5000,11 +5555,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1004276</v>
+        <v>1000466</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5018,22 +5573,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5752193.933725579</v>
+        <v>8048410.848694321</v>
       </c>
       <c r="G112" t="n">
-        <v>70560245.58703376</v>
+        <v>98727173.07731698</v>
       </c>
       <c r="H112" t="n">
-        <v>766959191.1634105</v>
+        <v>1073121446.492576</v>
       </c>
       <c r="I112" t="n">
-        <v>2907748.209574067</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J112" t="n">
-        <v>192856.4</v>
+        <v>269842.7</v>
       </c>
       <c r="K112" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5041,11 +5601,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1004668</v>
+        <v>1002346</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5059,22 +5619,27 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1945164.280052002</v>
+        <v>1171941.167017181</v>
       </c>
       <c r="G113" t="n">
-        <v>23860681.83530455</v>
+        <v>14375811.64874408</v>
       </c>
       <c r="H113" t="n">
-        <v>259355237.3402669</v>
+        <v>156258822.2689574</v>
       </c>
       <c r="I113" t="n">
-        <v>983285.3373539388</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J113" t="n">
-        <v>65216.4</v>
+        <v>39292.2</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5082,11 +5647,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1004861</v>
+        <v>1002356</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5100,22 +5665,27 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4884152.995016766</v>
+        <v>5500430.087700362</v>
       </c>
       <c r="G114" t="n">
-        <v>59912276.73887233</v>
+        <v>67471942.40912445</v>
       </c>
       <c r="H114" t="n">
-        <v>651220399.3355688</v>
+        <v>733390678.3600484</v>
       </c>
       <c r="I114" t="n">
-        <v>2468951.37580098</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J114" t="n">
-        <v>163753.2</v>
+        <v>184415.4</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5123,11 +5693,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1005170</v>
+        <v>1002614</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5141,22 +5711,27 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4356120.010241026</v>
+        <v>882110.0070857934</v>
       </c>
       <c r="G115" t="n">
-        <v>53435072.12562324</v>
+        <v>10820549.4202524</v>
       </c>
       <c r="H115" t="n">
-        <v>580816001.3654701</v>
+        <v>117614667.6114391</v>
       </c>
       <c r="I115" t="n">
-        <v>2202029.400678477</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J115" t="n">
-        <v>146049.6</v>
+        <v>29574.9</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5164,11 +5739,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1005374</v>
+        <v>1003422</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5182,22 +5757,27 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>15065973.8692676</v>
+        <v>2667175.626278945</v>
       </c>
       <c r="G116" t="n">
-        <v>184809279.4630159</v>
+        <v>32717354.34902173</v>
       </c>
       <c r="H116" t="n">
-        <v>2008796515.902346</v>
+        <v>355623416.8371927</v>
       </c>
       <c r="I116" t="n">
-        <v>7615886.920467395</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J116" t="n">
-        <v>505123.7</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5785,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1005661</v>
+        <v>1004033</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5223,22 +5803,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>12582164.54522828</v>
+        <v>1866679.339354127</v>
       </c>
       <c r="G117" t="n">
-        <v>154341218.4214669</v>
+        <v>22897933.22941063</v>
       </c>
       <c r="H117" t="n">
-        <v>1677621939.36377</v>
+        <v>248890578.5805503</v>
       </c>
       <c r="I117" t="n">
-        <v>6360315.185906462</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J117" t="n">
-        <v>421852.2000000001</v>
+        <v>62585</v>
       </c>
       <c r="K117" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5246,11 +5831,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1006469</v>
+        <v>1004276</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5264,22 +5849,27 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5394108.255935633</v>
+        <v>5752193.933725579</v>
       </c>
       <c r="G118" t="n">
-        <v>66167727.93947709</v>
+        <v>70560245.58703376</v>
       </c>
       <c r="H118" t="n">
-        <v>719214434.124751</v>
+        <v>766959191.1634105</v>
       </c>
       <c r="I118" t="n">
-        <v>2726735.01696193</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J118" t="n">
-        <v>180850.7</v>
+        <v>192856.4</v>
       </c>
       <c r="K118" t="n">
-        <v>123.6999999999825</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -5287,11 +5877,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1006787</v>
+        <v>1004668</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5305,22 +5895,27 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5109383.359532205</v>
+        <v>1945164.280052002</v>
       </c>
       <c r="G119" t="n">
-        <v>62675102.54359505</v>
+        <v>23860681.83530455</v>
       </c>
       <c r="H119" t="n">
-        <v>681251114.6042941</v>
+        <v>259355237.3402669</v>
       </c>
       <c r="I119" t="n">
-        <v>2582805.880135695</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J119" t="n">
-        <v>171304.6</v>
+        <v>65216.4</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5328,11 +5923,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1012111</v>
+        <v>1004708</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5346,22 +5941,27 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>919777.6484962004</v>
+        <v>1337563.659683148</v>
       </c>
       <c r="G120" t="n">
-        <v>11282605.82155339</v>
+        <v>16407447.55877995</v>
       </c>
       <c r="H120" t="n">
-        <v>122637019.7994934</v>
+        <v>178341821.2910864</v>
       </c>
       <c r="I120" t="n">
-        <v>464949.8680738786</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J120" t="n">
-        <v>30837.8</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5369,11 +5969,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1000037</v>
+        <v>1004861</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5383,26 +5983,31 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4692125.273955334</v>
+        <v>4884152.995016766</v>
       </c>
       <c r="G121" t="n">
-        <v>7413159.422979691</v>
+        <v>59912276.73887233</v>
       </c>
       <c r="H121" t="n">
-        <v>80577819.81499664</v>
+        <v>651220399.3355688</v>
       </c>
       <c r="I121" t="n">
-        <v>474376.177911798</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J121" t="n">
-        <v>31463</v>
+        <v>163753.2</v>
       </c>
       <c r="K121" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5410,11 +6015,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1000261</v>
+        <v>1005019</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5424,26 +6029,31 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80014045.90983655</v>
+        <v>1512609.190483144</v>
       </c>
       <c r="G122" t="n">
-        <v>127232718.6299543</v>
+        <v>18554672.73659324</v>
       </c>
       <c r="H122" t="n">
-        <v>1382964332.934286</v>
+        <v>201681225.3977526</v>
       </c>
       <c r="I122" t="n">
-        <v>8089459.479834151</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J122" t="n">
-        <v>536533.4</v>
+        <v>50714.1</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5451,11 +6061,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1000334</v>
+        <v>1005170</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5465,26 +6075,31 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>61916323.5150203</v>
+        <v>4356120.010241026</v>
       </c>
       <c r="G123" t="n">
-        <v>98454990.98076907</v>
+        <v>53435072.12562324</v>
       </c>
       <c r="H123" t="n">
-        <v>1070162945.443142</v>
+        <v>580816001.3654701</v>
       </c>
       <c r="I123" t="n">
-        <v>6259770.825480588</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J123" t="n">
-        <v>415179.3</v>
+        <v>146049.6</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5492,11 +6107,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1000413</v>
+        <v>1005374</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5506,26 +6121,31 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>51544583.63951778</v>
+        <v>15065973.8692676</v>
       </c>
       <c r="G124" t="n">
-        <v>81962578.35149269</v>
+        <v>184809279.4630159</v>
       </c>
       <c r="H124" t="n">
-        <v>890897590.7770945</v>
+        <v>2008796515.902346</v>
       </c>
       <c r="I124" t="n">
-        <v>5211182.811911045</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J124" t="n">
-        <v>345631.7</v>
+        <v>505123.7</v>
       </c>
       <c r="K124" t="n">
-        <v>5631.899999999965</v>
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -5533,11 +6153,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1000466</v>
+        <v>1006469</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5547,26 +6167,31 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40242054.2434716</v>
+        <v>5394108.255935633</v>
       </c>
       <c r="G125" t="n">
-        <v>58521991.30545597</v>
+        <v>66167727.93947709</v>
       </c>
       <c r="H125" t="n">
-        <v>636108601.1462605</v>
+        <v>719214434.124751</v>
       </c>
       <c r="I125" t="n">
-        <v>4068491.519035055</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J125" t="n">
-        <v>269842.7</v>
+        <v>180850.7</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5574,11 +6199,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1002346</v>
+        <v>1006787</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5588,26 +6213,31 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>5859705.835085903</v>
+        <v>5109383.359532205</v>
       </c>
       <c r="G126" t="n">
-        <v>9257837.545040291</v>
+        <v>62675102.54359505</v>
       </c>
       <c r="H126" t="n">
-        <v>100628668.9678292</v>
+        <v>681251114.6042941</v>
       </c>
       <c r="I126" t="n">
-        <v>592419.1481341877</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J126" t="n">
-        <v>39292.2</v>
+        <v>171304.6</v>
       </c>
       <c r="K126" t="n">
-        <v>7042.5</v>
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -5615,11 +6245,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1002356</v>
+        <v>1012111</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5629,26 +6259,31 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>27502150.43850181</v>
+        <v>919777.6484962004</v>
       </c>
       <c r="G127" t="n">
-        <v>39994991.28711722</v>
+        <v>11282605.82155339</v>
       </c>
       <c r="H127" t="n">
-        <v>434728166.1643176</v>
+        <v>122637019.7994934</v>
       </c>
       <c r="I127" t="n">
-        <v>2780480.964945345</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J127" t="n">
-        <v>184415.4</v>
+        <v>30837.8</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5656,11 +6291,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1003422</v>
+        <v>1000037</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5674,22 +6309,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>13335878.13139473</v>
+        <v>4692125.273955334</v>
       </c>
       <c r="G128" t="n">
-        <v>19393695.44442956</v>
+        <v>6734350.471619476</v>
       </c>
       <c r="H128" t="n">
-        <v>210801037.4394518</v>
+        <v>73199461.64803778</v>
       </c>
       <c r="I128" t="n">
-        <v>1348263.852242744</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J128" t="n">
-        <v>89423.60000000001</v>
+        <v>31463</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5697,11 +6337,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1004276</v>
+        <v>1000376</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5715,22 +6355,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>28760969.6686279</v>
+        <v>16824526.88536493</v>
       </c>
       <c r="G129" t="n">
-        <v>41825628.64958562</v>
+        <v>21016944.38920391</v>
       </c>
       <c r="H129" t="n">
-        <v>454626398.3650611</v>
+        <v>228445047.7087382</v>
       </c>
       <c r="I129" t="n">
-        <v>2907748.209574067</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J129" t="n">
-        <v>192856.4</v>
+        <v>112816.7</v>
       </c>
       <c r="K129" t="n">
-        <v>244.2999999999884</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5738,11 +6383,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1004668</v>
+        <v>1000466</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5756,22 +6401,27 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>9725821.400260007</v>
+        <v>40242054.2434716</v>
       </c>
       <c r="G130" t="n">
-        <v>14143771.88552123</v>
+        <v>52979990.28744619</v>
       </c>
       <c r="H130" t="n">
-        <v>153736650.9295785</v>
+        <v>575869459.6461542</v>
       </c>
       <c r="I130" t="n">
-        <v>983285.3373539388</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J130" t="n">
-        <v>65216.4</v>
+        <v>269842.7</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5779,11 +6429,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1004861</v>
+        <v>1002346</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5797,22 +6447,27 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>24420764.97508383</v>
+        <v>5859705.835085903</v>
       </c>
       <c r="G131" t="n">
-        <v>36242483.40821889</v>
+        <v>8410114.915963728</v>
       </c>
       <c r="H131" t="n">
-        <v>393940037.0458575</v>
+        <v>91414292.56482314</v>
       </c>
       <c r="I131" t="n">
-        <v>2468951.37580098</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J131" t="n">
-        <v>163753.2</v>
+        <v>39292.2</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5820,11 +6475,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1005170</v>
+        <v>1002356</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5838,22 +6493,27 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>21780600.05120513</v>
+        <v>27502150.43850181</v>
       </c>
       <c r="G132" t="n">
-        <v>31674428.92235114</v>
+        <v>36207487.17995894</v>
       </c>
       <c r="H132" t="n">
-        <v>344287270.895121</v>
+        <v>393559643.2604232</v>
       </c>
       <c r="I132" t="n">
-        <v>2202029.400678477</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J132" t="n">
-        <v>146049.6</v>
+        <v>184415.4</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -5861,11 +6521,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1005374</v>
+        <v>1002614</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5879,22 +6539,27 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>75329869.34633799</v>
+        <v>4410550.035428967</v>
       </c>
       <c r="G133" t="n">
-        <v>109548432.3999861</v>
+        <v>5509592.361913322</v>
       </c>
       <c r="H133" t="n">
-        <v>1190743830.434632</v>
+        <v>59886873.49905784</v>
       </c>
       <c r="I133" t="n">
-        <v>7615886.920467395</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J133" t="n">
-        <v>505123.7</v>
+        <v>29574.9</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5902,11 +6567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1005661</v>
+        <v>1003422</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5920,22 +6585,27 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>62910822.72614139</v>
+        <v>13335878.13139473</v>
       </c>
       <c r="G134" t="n">
-        <v>100036373.8100896</v>
+        <v>17557122.94410215</v>
       </c>
       <c r="H134" t="n">
-        <v>1087351889.240105</v>
+        <v>190838292.8706756</v>
       </c>
       <c r="I134" t="n">
-        <v>6360315.185906462</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J134" t="n">
-        <v>421852.2000000001</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -5943,11 +6613,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1006469</v>
+        <v>1004033</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5961,22 +6631,27 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>26970541.27967816</v>
+        <v>9333396.696770636</v>
       </c>
       <c r="G135" t="n">
-        <v>39221898.88029443</v>
+        <v>11659137.91662339</v>
       </c>
       <c r="H135" t="n">
-        <v>426324987.8292873</v>
+        <v>126729759.9632978</v>
       </c>
       <c r="I135" t="n">
-        <v>2726735.01696193</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J135" t="n">
-        <v>180850.7</v>
+        <v>62585</v>
       </c>
       <c r="K135" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5984,11 +6659,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1006787</v>
+        <v>1004276</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6002,22 +6677,27 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>25546916.79766103</v>
+        <v>28760969.6686279</v>
       </c>
       <c r="G136" t="n">
-        <v>37151593.54610895</v>
+        <v>37864764.17139258</v>
       </c>
       <c r="H136" t="n">
-        <v>403821668.979445</v>
+        <v>411573523.6020933</v>
       </c>
       <c r="I136" t="n">
-        <v>2582805.880135695</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J136" t="n">
-        <v>171304.6</v>
+        <v>192856.4</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6025,11 +6705,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1012111</v>
+        <v>1004668</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6043,22 +6723,27 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4598888.242481003</v>
+        <v>9725821.400260007</v>
       </c>
       <c r="G137" t="n">
-        <v>7265852.832023744</v>
+        <v>12804364.31514436</v>
       </c>
       <c r="H137" t="n">
-        <v>78976661.2176494</v>
+        <v>139177872.9906996</v>
       </c>
       <c r="I137" t="n">
-        <v>464949.8680738786</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J137" t="n">
-        <v>30837.8</v>
+        <v>65216.4</v>
       </c>
       <c r="K137" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -6066,11 +6751,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1000037</v>
+        <v>1004708</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6080,26 +6765,31 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>15640417.57985111</v>
+        <v>6687818.298415738</v>
       </c>
       <c r="G138" t="n">
-        <v>7735470.702239677</v>
+        <v>15695016.89013931</v>
       </c>
       <c r="H138" t="n">
-        <v>84081203.28521389</v>
+        <v>170598009.6754273</v>
       </c>
       <c r="I138" t="n">
-        <v>474376.177911798</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J138" t="n">
-        <v>31463</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -6107,11 +6797,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1000261</v>
+        <v>1004861</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ingredion Incorporated Argo Plant</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6121,26 +6811,31 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>266713486.3661218</v>
+        <v>24420764.97508383</v>
       </c>
       <c r="G139" t="n">
-        <v>132712163.8767223</v>
+        <v>32837212.88049899</v>
       </c>
       <c r="H139" t="n">
-        <v>1442523520.399156</v>
+        <v>356926226.9619456</v>
       </c>
       <c r="I139" t="n">
-        <v>8089459.479834151</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J139" t="n">
-        <v>536533.4</v>
+        <v>163753.2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -6148,11 +6843,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1000334</v>
+        <v>1005019</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Primary Products Ingredients Americas LLC - Decatur</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6162,26 +6857,31 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>206387745.0500677</v>
+        <v>7563045.952415721</v>
       </c>
       <c r="G140" t="n">
-        <v>102695085.3382527</v>
+        <v>9447642.556485903</v>
       </c>
       <c r="H140" t="n">
-        <v>1116250927.589703</v>
+        <v>102691766.918325</v>
       </c>
       <c r="I140" t="n">
-        <v>6259770.825480588</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J140" t="n">
-        <v>415179.3</v>
+        <v>50714.1</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6189,11 +6889,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1000413</v>
+        <v>1005170</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Alto Pekin, LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6203,26 +6903,31 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>171815278.7983926</v>
+        <v>21780600.05120513</v>
       </c>
       <c r="G141" t="n">
-        <v>85492405.15388256</v>
+        <v>28674877.58418293</v>
       </c>
       <c r="H141" t="n">
-        <v>929265273.411767</v>
+        <v>311683452.0019884</v>
       </c>
       <c r="I141" t="n">
-        <v>5211182.811911045</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J141" t="n">
-        <v>345631.7</v>
+        <v>146049.6</v>
       </c>
       <c r="K141" t="n">
-        <v>5631.899999999965</v>
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -6230,11 +6935,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1000466</v>
+        <v>1005374</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6244,26 +6949,31 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>134140180.811572</v>
+        <v>75329869.34633799</v>
       </c>
       <c r="G142" t="n">
-        <v>61390716.3694489</v>
+        <v>99174254.92688474</v>
       </c>
       <c r="H142" t="n">
-        <v>667290395.3200967</v>
+        <v>1077981031.813965</v>
       </c>
       <c r="I142" t="n">
-        <v>4068491.519035055</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J142" t="n">
-        <v>269842.7</v>
+        <v>505123.7</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -6271,11 +6981,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1002346</v>
+        <v>1006469</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6285,26 +6995,31 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>19532352.78361968</v>
+        <v>26970541.27967816</v>
       </c>
       <c r="G143" t="n">
-        <v>9660352.220911607</v>
+        <v>35507606.20716383</v>
       </c>
       <c r="H143" t="n">
-        <v>105003828.4881696</v>
+        <v>385952241.3822155</v>
       </c>
       <c r="I143" t="n">
-        <v>592419.1481341877</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J143" t="n">
-        <v>39292.2</v>
+        <v>180850.7</v>
       </c>
       <c r="K143" t="n">
-        <v>7042.5</v>
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6312,11 +7027,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1002356</v>
+        <v>1006787</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6326,26 +7041,31 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>91673834.79500604</v>
+        <v>25546916.79766103</v>
       </c>
       <c r="G144" t="n">
-        <v>41955530.07570139</v>
+        <v>33633357.67169115</v>
       </c>
       <c r="H144" t="n">
-        <v>456038370.3880587</v>
+        <v>365579974.6922951</v>
       </c>
       <c r="I144" t="n">
-        <v>2780480.964945345</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J144" t="n">
-        <v>184415.4</v>
+        <v>171304.6</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -6353,11 +7073,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1003422</v>
+        <v>1012111</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6367,26 +7087,31 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>44452927.10464909</v>
+        <v>4598888.242481003</v>
       </c>
       <c r="G145" t="n">
-        <v>20344366.78974474</v>
+        <v>6600532.465871246</v>
       </c>
       <c r="H145" t="n">
-        <v>221134421.6276602</v>
+        <v>71744918.10729615</v>
       </c>
       <c r="I145" t="n">
-        <v>1348263.852242744</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J145" t="n">
-        <v>89423.60000000001</v>
+        <v>30837.8</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -6394,11 +7119,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1004276</v>
+        <v>1000037</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6412,22 +7137,27 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>95869898.89542632</v>
+        <v>15640417.57985111</v>
       </c>
       <c r="G146" t="n">
-        <v>43875904.56378099</v>
+        <v>7027148.318211627</v>
       </c>
       <c r="H146" t="n">
-        <v>476912006.1280543</v>
+        <v>76382046.9370829</v>
       </c>
       <c r="I146" t="n">
-        <v>2907748.209574067</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J146" t="n">
-        <v>192856.4</v>
+        <v>31463</v>
       </c>
       <c r="K146" t="n">
-        <v>244.2999999999884</v>
+        <v>7909.900000000001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -6435,11 +7165,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1004668</v>
+        <v>1000376</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6453,22 +7183,27 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>32419404.66753336</v>
+        <v>56081756.28454976</v>
       </c>
       <c r="G147" t="n">
-        <v>14837094.03677226</v>
+        <v>22123099.35705675</v>
       </c>
       <c r="H147" t="n">
-        <v>161272761.2692637</v>
+        <v>240468471.272356</v>
       </c>
       <c r="I147" t="n">
-        <v>983285.3373539388</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J147" t="n">
-        <v>65216.4</v>
+        <v>112816.7</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -6476,11 +7211,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1004861</v>
+        <v>1000466</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6494,22 +7229,27 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>81402549.9169461</v>
+        <v>134140180.811572</v>
       </c>
       <c r="G148" t="n">
-        <v>37968315.95146742</v>
+        <v>55577048.63487002</v>
       </c>
       <c r="H148" t="n">
-        <v>412699086.4289936</v>
+        <v>604098354.726848</v>
       </c>
       <c r="I148" t="n">
-        <v>2468951.37580098</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J148" t="n">
-        <v>163753.2</v>
+        <v>269842.7</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -6517,11 +7257,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1005170</v>
+        <v>1002346</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6535,22 +7275,27 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>72602000.17068377</v>
+        <v>19532352.78361968</v>
       </c>
       <c r="G149" t="n">
-        <v>33227097.00678011</v>
+        <v>8775772.086223019</v>
       </c>
       <c r="H149" t="n">
-        <v>361164097.8997838</v>
+        <v>95388827.02416326</v>
       </c>
       <c r="I149" t="n">
-        <v>2202029.400678477</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J149" t="n">
-        <v>146049.6</v>
+        <v>39292.2</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>7042.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -6558,11 +7303,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1005374</v>
+        <v>1002356</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6576,22 +7321,27 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>251099564.4877933</v>
+        <v>91673834.79500604</v>
       </c>
       <c r="G150" t="n">
-        <v>114918453.5960639</v>
+        <v>37982364.00250594</v>
       </c>
       <c r="H150" t="n">
-        <v>1249113626.044173</v>
+        <v>412851782.6359342</v>
       </c>
       <c r="I150" t="n">
-        <v>7615886.920467395</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J150" t="n">
-        <v>505123.7</v>
+        <v>184415.4</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -6599,11 +7349,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1005661</v>
+        <v>1002614</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland Co.</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6617,22 +7367,27 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>209702742.4204713</v>
+        <v>14701833.45142989</v>
       </c>
       <c r="G151" t="n">
-        <v>104344572.5099212</v>
+        <v>5799570.907277181</v>
       </c>
       <c r="H151" t="n">
-        <v>1134180135.977405</v>
+        <v>63038814.20953458</v>
       </c>
       <c r="I151" t="n">
-        <v>6360315.185906462</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J151" t="n">
-        <v>421852.2000000001</v>
+        <v>29574.9</v>
       </c>
       <c r="K151" t="n">
-        <v>43522.39999999997</v>
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -6640,11 +7395,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1006469</v>
+        <v>1003422</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6658,22 +7413,27 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>89901804.26559387</v>
+        <v>44452927.10464909</v>
       </c>
       <c r="G152" t="n">
-        <v>41144540.98226964</v>
+        <v>18417766.22567579</v>
       </c>
       <c r="H152" t="n">
-        <v>447223271.5464092</v>
+        <v>200193111.1486499</v>
       </c>
       <c r="I152" t="n">
-        <v>2726735.01696193</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J152" t="n">
-        <v>180850.7</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -6681,11 +7441,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1006787</v>
+        <v>1004033</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6699,22 +7459,27 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>85156389.32553676</v>
+        <v>31111322.32256879</v>
       </c>
       <c r="G153" t="n">
-        <v>38972750.09248683</v>
+        <v>12272776.75434042</v>
       </c>
       <c r="H153" t="n">
-        <v>423616848.8313786</v>
+        <v>133399747.3297871</v>
       </c>
       <c r="I153" t="n">
-        <v>2582805.880135695</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J153" t="n">
-        <v>171304.6</v>
+        <v>62585</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -6722,40 +7487,459 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>1004276</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CHS-Rochelle</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>95869898.89542632</v>
+      </c>
+      <c r="G154" t="n">
+        <v>39720880.06214713</v>
+      </c>
+      <c r="H154" t="n">
+        <v>431748696.3276861</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2907748.209574067</v>
+      </c>
+      <c r="J154" t="n">
+        <v>192856.4</v>
+      </c>
+      <c r="K154" t="n">
+        <v>244.2999999999884</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1004668</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>32419404.66753336</v>
+      </c>
+      <c r="G155" t="n">
+        <v>13432029.2325534</v>
+      </c>
+      <c r="H155" t="n">
+        <v>146000317.7451456</v>
+      </c>
+      <c r="I155" t="n">
+        <v>983285.3373539388</v>
+      </c>
+      <c r="J155" t="n">
+        <v>65216.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1004708</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>22292727.66138579</v>
+      </c>
+      <c r="G156" t="n">
+        <v>16002762.31935773</v>
+      </c>
+      <c r="H156" t="n">
+        <v>173943068.688671</v>
+      </c>
+      <c r="I156" t="n">
+        <v>676141.7263475312</v>
+      </c>
+      <c r="J156" t="n">
+        <v>44845.10000000001</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1004861</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Alto ICP, LLC</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>81402549.9169461</v>
+      </c>
+      <c r="G157" t="n">
+        <v>34400889.68433228</v>
+      </c>
+      <c r="H157" t="n">
+        <v>373922713.9601335</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2468951.37580098</v>
+      </c>
+      <c r="J157" t="n">
+        <v>163753.2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1005019</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>25210153.17471907</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9944886.901564108</v>
+      </c>
+      <c r="H158" t="n">
+        <v>108096596.7561316</v>
+      </c>
+      <c r="I158" t="n">
+        <v>764627.6735603663</v>
+      </c>
+      <c r="J158" t="n">
+        <v>50714.1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1005170</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Green Plains Madison LLC</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>72602000.17068377</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30080508.83830955</v>
+      </c>
+      <c r="H159" t="n">
+        <v>326962052.5903212</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2202029.400678477</v>
+      </c>
+      <c r="J159" t="n">
+        <v>146049.6</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1005374</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Marquis Energy - Illinois LLC</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>251099564.4877933</v>
+      </c>
+      <c r="G160" t="n">
+        <v>104035738.011536</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1130823239.255826</v>
+      </c>
+      <c r="I160" t="n">
+        <v>7615886.920467395</v>
+      </c>
+      <c r="J160" t="n">
+        <v>505123.7</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1006469</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>89901804.26559387</v>
+      </c>
+      <c r="G161" t="n">
+        <v>37248175.13888754</v>
+      </c>
+      <c r="H161" t="n">
+        <v>404871468.9009515</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2726735.01696193</v>
+      </c>
+      <c r="J161" t="n">
+        <v>180850.7</v>
+      </c>
+      <c r="K161" t="n">
+        <v>123.6999999999825</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1006787</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>85156389.32553676</v>
+      </c>
+      <c r="G162" t="n">
+        <v>35282051.67520543</v>
+      </c>
+      <c r="H162" t="n">
+        <v>383500561.6870155</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2582805.880135695</v>
+      </c>
+      <c r="J162" t="n">
+        <v>171304.6</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>1012111</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>Scenario4Worst</t>
         </is>
       </c>
-      <c r="F154" t="n">
+      <c r="F163" t="n">
         <v>15329627.47493668</v>
       </c>
-      <c r="G154" t="n">
-        <v>7581759.476894342</v>
-      </c>
-      <c r="H154" t="n">
-        <v>82410429.09667763</v>
-      </c>
-      <c r="I154" t="n">
+      <c r="G163" t="n">
+        <v>6887512.138300432</v>
+      </c>
+      <c r="H163" t="n">
+        <v>74864262.37283078</v>
+      </c>
+      <c r="I163" t="n">
         <v>464949.8680738786</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J163" t="n">
         <v>30837.8</v>
       </c>
-      <c r="K154" t="n">
+      <c r="K163" t="n">
         <v>3.637978807091713e-12</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/LCOH modelling/output/longform_il.xlsx
+++ b/LCOH modelling/output/longform_il.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1000376</v>
+        <v>1000037</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,30 +555,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>295430.1098416321</v>
       </c>
       <c r="G3" t="n">
-        <v>12683376.41912375</v>
+        <v>12790385.93196713</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>139025934.043121</v>
       </c>
       <c r="I3" t="n">
-        <v>1700967.960799095</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J3" t="n">
-        <v>112816.7</v>
+        <v>31463</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -587,11 +587,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1000466</v>
+        <v>1000037</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,30 +601,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1042694.505323407</v>
       </c>
       <c r="G4" t="n">
-        <v>30336967.29342982</v>
+        <v>12790385.93196713</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>139025934.043121</v>
       </c>
       <c r="I4" t="n">
-        <v>4068491.519035055</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J4" t="n">
-        <v>269842.7</v>
+        <v>31463</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1002346</v>
+        <v>1000037</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -647,26 +647,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5213472.526617037</v>
       </c>
       <c r="G5" t="n">
-        <v>4417411.278077573</v>
+        <v>7482611.63513275</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>81332735.16448642</v>
       </c>
       <c r="I5" t="n">
-        <v>592419.1481341877</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J5" t="n">
-        <v>39292.2</v>
+        <v>31463</v>
       </c>
       <c r="K5" t="n">
-        <v>7042.5</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1002356</v>
+        <v>1000037</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -693,30 +693,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>17378241.75539013</v>
       </c>
       <c r="G6" t="n">
-        <v>20732834.19638469</v>
+        <v>7807942.575790696</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>84868941.04120322</v>
       </c>
       <c r="I6" t="n">
-        <v>2780480.964945345</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J6" t="n">
-        <v>184415.4</v>
+        <v>31463</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -725,11 +725,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1002614</v>
+        <v>1000037</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -739,30 +739,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>265887.0988574689</v>
       </c>
       <c r="G7" t="n">
-        <v>3324947.363802902</v>
+        <v>11511347.33877042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>125123340.6388089</v>
       </c>
       <c r="I7" t="n">
-        <v>445908.7825103656</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J7" t="n">
-        <v>29574.9</v>
+        <v>31463</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -771,11 +771,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1003422</v>
+        <v>1000037</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -785,30 +785,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>938425.0547910668</v>
       </c>
       <c r="G8" t="n">
-        <v>10053415.66942797</v>
+        <v>11511347.33877042</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>125123340.6388089</v>
       </c>
       <c r="I8" t="n">
-        <v>1348263.852242744</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J8" t="n">
-        <v>89423.60000000001</v>
+        <v>31463</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -817,11 +817,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004033</v>
+        <v>1000037</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -831,30 +831,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4692125.273955334</v>
       </c>
       <c r="G9" t="n">
-        <v>7036095.836794195</v>
+        <v>6734350.471619476</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>73199461.64803778</v>
       </c>
       <c r="I9" t="n">
-        <v>943611.0064078402</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J9" t="n">
-        <v>62585</v>
+        <v>31463</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -863,11 +863,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004276</v>
+        <v>1000037</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>TYSON FRESH MEATS INC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -877,30 +877,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15640417.57985111</v>
       </c>
       <c r="G10" t="n">
-        <v>21681810.54788074</v>
+        <v>7027148.318211627</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76382046.9370829</v>
       </c>
       <c r="I10" t="n">
-        <v>2907748.209574067</v>
+        <v>474376.177911798</v>
       </c>
       <c r="J10" t="n">
-        <v>192856.4</v>
+        <v>31463</v>
       </c>
       <c r="K10" t="n">
-        <v>244.2999999999884</v>
+        <v>7909.900000000001</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -909,11 +909,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1004668</v>
+        <v>1000376</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -930,23 +930,23 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7331930.023659103</v>
+        <v>12683376.41912375</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>983285.3373539388</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J11" t="n">
-        <v>65216.4</v>
+        <v>112816.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -955,11 +955,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1004708</v>
+        <v>1000376</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -969,30 +969,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1059322.063152607</v>
       </c>
       <c r="G12" t="n">
-        <v>5041694.038677309</v>
+        <v>45862414.02825402</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>498504500.307109</v>
       </c>
       <c r="I12" t="n">
-        <v>676141.7263475312</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J12" t="n">
-        <v>44845.10000000001</v>
+        <v>112816.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1004861</v>
+        <v>1000376</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1015,30 +1015,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3738783.752303317</v>
       </c>
       <c r="G13" t="n">
-        <v>18409893.88482427</v>
+        <v>45862414.02825402</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>498504500.307109</v>
       </c>
       <c r="I13" t="n">
-        <v>2468951.37580098</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J13" t="n">
-        <v>163753.2</v>
+        <v>112816.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1047,11 +1047,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1005019</v>
+        <v>1000376</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1061,30 +1061,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>18693918.76151659</v>
       </c>
       <c r="G14" t="n">
-        <v>5701645.313581191</v>
+        <v>23352160.43244879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253827830.7874869</v>
       </c>
       <c r="I14" t="n">
-        <v>764627.6735603663</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J14" t="n">
-        <v>50714.1</v>
+        <v>112816.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1093,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1005170</v>
+        <v>1000376</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1107,30 +1107,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>62313062.53838862</v>
       </c>
       <c r="G15" t="n">
-        <v>16419573.10098997</v>
+        <v>24581221.50784083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>267187190.3026177</v>
       </c>
       <c r="I15" t="n">
-        <v>2202029.400678477</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J15" t="n">
-        <v>146049.6</v>
+        <v>112816.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1139,11 +1139,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1005374</v>
+        <v>1000376</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1153,30 +1153,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>953389.8568373459</v>
       </c>
       <c r="G16" t="n">
-        <v>56788348.04883087</v>
+        <v>41276172.62542862</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>448654050.2763981</v>
       </c>
       <c r="I16" t="n">
-        <v>7615886.920467395</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J16" t="n">
-        <v>505123.7</v>
+        <v>112816.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1185,11 +1185,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1006469</v>
+        <v>1000376</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1199,30 +1199,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3364905.377072986</v>
       </c>
       <c r="G17" t="n">
-        <v>20332074.09684934</v>
+        <v>41276172.62542862</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>448654050.2763981</v>
       </c>
       <c r="I17" t="n">
-        <v>2726735.01696193</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J17" t="n">
-        <v>180850.7</v>
+        <v>112816.7</v>
       </c>
       <c r="K17" t="n">
-        <v>123.6999999999825</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1231,11 +1231,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1006787</v>
+        <v>1000376</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1245,30 +1245,30 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>16824526.88536493</v>
       </c>
       <c r="G18" t="n">
-        <v>19258857.280238</v>
+        <v>21016944.38920391</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>228445047.7087382</v>
       </c>
       <c r="I18" t="n">
-        <v>2582805.880135695</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J18" t="n">
-        <v>171304.6</v>
+        <v>112816.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1012111</v>
+        <v>1000376</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>ADM QUINCY</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1291,30 +1291,30 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56081756.28454976</v>
       </c>
       <c r="G19" t="n">
-        <v>3466928.436460686</v>
+        <v>22123099.35705675</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>240468471.272356</v>
       </c>
       <c r="I19" t="n">
-        <v>464949.8680738786</v>
+        <v>1700967.960799095</v>
       </c>
       <c r="J19" t="n">
-        <v>30837.8</v>
+        <v>112816.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -1323,11 +1323,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1000037</v>
+        <v>1000466</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1337,30 +1337,30 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>295430.1098416321</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12790385.93196713</v>
+        <v>30336967.29342982</v>
       </c>
       <c r="H20" t="n">
-        <v>139025934.043121</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>474376.177911798</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J20" t="n">
-        <v>31463</v>
+        <v>269842.7</v>
       </c>
       <c r="K20" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1369,11 +1369,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1000376</v>
+        <v>1000466</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1387,26 +1387,26 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1059322.063152607</v>
+        <v>2533758.970885249</v>
       </c>
       <c r="G21" t="n">
-        <v>45862414.02825402</v>
+        <v>109696858.9747967</v>
       </c>
       <c r="H21" t="n">
-        <v>498504500.307109</v>
+        <v>1192357162.769529</v>
       </c>
       <c r="I21" t="n">
-        <v>1700967.960799095</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J21" t="n">
-        <v>112816.7</v>
+        <v>269842.7</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1429,11 +1429,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2533758.970885249</v>
+        <v>8942678.720771465</v>
       </c>
       <c r="G22" t="n">
         <v>109696858.9747967</v>
@@ -1461,11 +1461,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1002346</v>
+        <v>1000466</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1475,30 +1475,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>368944.4414683717</v>
+        <v>44713393.60385733</v>
       </c>
       <c r="G23" t="n">
-        <v>15973124.05416009</v>
+        <v>58866655.87494021</v>
       </c>
       <c r="H23" t="n">
-        <v>173620913.6321749</v>
+        <v>639854955.1623936</v>
       </c>
       <c r="I23" t="n">
-        <v>592419.1481341877</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J23" t="n">
-        <v>39292.2</v>
+        <v>269842.7</v>
       </c>
       <c r="K23" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1002356</v>
+        <v>1000466</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1521,23 +1521,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1731616.879461225</v>
+        <v>149044645.3461911</v>
       </c>
       <c r="G24" t="n">
-        <v>74968824.89902717</v>
+        <v>61752276.26096668</v>
       </c>
       <c r="H24" t="n">
-        <v>814878531.5111649</v>
+        <v>671220394.1409422</v>
       </c>
       <c r="I24" t="n">
-        <v>2780480.964945345</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J24" t="n">
-        <v>184415.4</v>
+        <v>269842.7</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1553,11 +1553,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1002614</v>
+        <v>1000466</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1567,23 +1567,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>277701.2985270091</v>
+        <v>2280383.073796724</v>
       </c>
       <c r="G25" t="n">
-        <v>12022832.68916933</v>
+        <v>98727173.07731698</v>
       </c>
       <c r="H25" t="n">
-        <v>130682964.0127101</v>
+        <v>1073121446.492576</v>
       </c>
       <c r="I25" t="n">
-        <v>445908.7825103656</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J25" t="n">
-        <v>29574.9</v>
+        <v>269842.7</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1599,11 +1599,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1003422</v>
+        <v>1000466</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1613,23 +1613,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>839666.4008655938</v>
+        <v>8048410.848694321</v>
       </c>
       <c r="G26" t="n">
-        <v>36352615.94335748</v>
+        <v>98727173.07731698</v>
       </c>
       <c r="H26" t="n">
-        <v>395137129.819103</v>
+        <v>1073121446.492576</v>
       </c>
       <c r="I26" t="n">
-        <v>1348263.852242744</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J26" t="n">
-        <v>89423.60000000001</v>
+        <v>269842.7</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1645,11 +1645,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1004033</v>
+        <v>1000466</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1659,23 +1659,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>587658.3105374104</v>
+        <v>40242054.2434716</v>
       </c>
       <c r="G27" t="n">
-        <v>25442148.03267848</v>
+        <v>52979990.28744619</v>
       </c>
       <c r="H27" t="n">
-        <v>276545087.3117226</v>
+        <v>575869459.6461542</v>
       </c>
       <c r="I27" t="n">
-        <v>943611.0064078402</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J27" t="n">
-        <v>62585</v>
+        <v>269842.7</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1691,11 +1691,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1004276</v>
+        <v>1000466</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>BioUrja Renewables LLC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1705,30 +1705,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1810875.868024719</v>
+        <v>134140180.811572</v>
       </c>
       <c r="G28" t="n">
-        <v>78400272.87448196</v>
+        <v>55577048.63487002</v>
       </c>
       <c r="H28" t="n">
-        <v>852176879.0704561</v>
+        <v>604098354.726848</v>
       </c>
       <c r="I28" t="n">
-        <v>2907748.209574067</v>
+        <v>4068491.519035055</v>
       </c>
       <c r="J28" t="n">
-        <v>192856.4</v>
+        <v>269842.7</v>
       </c>
       <c r="K28" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1004668</v>
+        <v>1002346</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1751,30 +1751,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>612366.5326089634</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>26511868.70589395</v>
+        <v>4417411.278077573</v>
       </c>
       <c r="H29" t="n">
-        <v>288172485.9336299</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>983285.3373539388</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J29" t="n">
-        <v>65216.4</v>
+        <v>39292.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1783,11 +1783,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1004708</v>
+        <v>1002346</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1801,26 +1801,26 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>421084.8558261761</v>
+        <v>368944.4414683717</v>
       </c>
       <c r="G30" t="n">
-        <v>18230497.28753327</v>
+        <v>15973124.05416009</v>
       </c>
       <c r="H30" t="n">
-        <v>198157579.2123182</v>
+        <v>173620913.6321749</v>
       </c>
       <c r="I30" t="n">
-        <v>676141.7263475312</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J30" t="n">
-        <v>44845.10000000001</v>
+        <v>39292.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1829,11 +1829,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1004861</v>
+        <v>1002346</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1843,30 +1843,30 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1537603.720653426</v>
+        <v>1302156.852241312</v>
       </c>
       <c r="G31" t="n">
-        <v>66569196.37652481</v>
+        <v>15973124.05416009</v>
       </c>
       <c r="H31" t="n">
-        <v>723578221.4839653</v>
+        <v>173620913.6321749</v>
       </c>
       <c r="I31" t="n">
-        <v>2468951.37580098</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J31" t="n">
-        <v>163753.2</v>
+        <v>39292.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1875,11 +1875,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1005019</v>
+        <v>1002346</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1889,30 +1889,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>476191.782189138</v>
+        <v>6510784.261206559</v>
       </c>
       <c r="G32" t="n">
-        <v>20616303.04065915</v>
+        <v>9344572.128848586</v>
       </c>
       <c r="H32" t="n">
-        <v>224090250.4419473</v>
+        <v>101571436.1831368</v>
       </c>
       <c r="I32" t="n">
-        <v>764627.6735603663</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J32" t="n">
-        <v>50714.1</v>
+        <v>39292.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1921,11 +1921,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1005170</v>
+        <v>1002346</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1935,30 +1935,30 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1371371.114335138</v>
+        <v>21702614.20402186</v>
       </c>
       <c r="G33" t="n">
-        <v>59372302.36180361</v>
+        <v>9750857.873581132</v>
       </c>
       <c r="H33" t="n">
-        <v>645351112.6283001</v>
+        <v>105987585.5824036</v>
       </c>
       <c r="I33" t="n">
-        <v>2202029.400678477</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J33" t="n">
-        <v>146049.6</v>
+        <v>39292.2</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1967,11 +1967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1005374</v>
+        <v>1002346</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1981,30 +1981,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4742991.773658318</v>
+        <v>332049.9973215345</v>
       </c>
       <c r="G34" t="n">
-        <v>205343643.8477954</v>
+        <v>14375811.64874408</v>
       </c>
       <c r="H34" t="n">
-        <v>2231996128.780385</v>
+        <v>156258822.2689574</v>
       </c>
       <c r="I34" t="n">
-        <v>7615886.920467395</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J34" t="n">
-        <v>505123.7</v>
+        <v>39292.2</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2013,11 +2013,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1006469</v>
+        <v>1002346</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2027,30 +2027,30 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1698145.19168344</v>
+        <v>1171941.167017181</v>
       </c>
       <c r="G35" t="n">
-        <v>73519697.7105301</v>
+        <v>14375811.64874408</v>
       </c>
       <c r="H35" t="n">
-        <v>799127149.0275011</v>
+        <v>156258822.2689574</v>
       </c>
       <c r="I35" t="n">
-        <v>2726735.01696193</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J35" t="n">
-        <v>180850.7</v>
+        <v>39292.2</v>
       </c>
       <c r="K35" t="n">
-        <v>123.6999999999825</v>
+        <v>7042.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2059,11 +2059,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1006787</v>
+        <v>1002346</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2073,30 +2073,30 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1608509.576149028</v>
+        <v>5859705.835085903</v>
       </c>
       <c r="G36" t="n">
-        <v>69639002.82621673</v>
+        <v>8410114.915963728</v>
       </c>
       <c r="H36" t="n">
-        <v>756945682.8936601</v>
+        <v>91414292.56482314</v>
       </c>
       <c r="I36" t="n">
-        <v>2582805.880135695</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J36" t="n">
-        <v>171304.6</v>
+        <v>39292.2</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>7042.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2105,11 +2105,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1012111</v>
+        <v>1002346</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>JBS/Swift Pork Company</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,30 +2119,30 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>289559.6300821372</v>
+        <v>19532352.78361968</v>
       </c>
       <c r="G37" t="n">
-        <v>12536228.69061488</v>
+        <v>8775772.086223019</v>
       </c>
       <c r="H37" t="n">
-        <v>136263355.3327704</v>
+        <v>95388827.02416326</v>
       </c>
       <c r="I37" t="n">
-        <v>464949.8680738786</v>
+        <v>592419.1481341877</v>
       </c>
       <c r="J37" t="n">
-        <v>30837.8</v>
+        <v>39292.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>7042.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2151,11 +2151,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1000037</v>
+        <v>1002356</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2165,30 +2165,30 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1042694.505323407</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>12790385.93196713</v>
+        <v>20732834.19638469</v>
       </c>
       <c r="H38" t="n">
-        <v>139025934.043121</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>474376.177911798</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J38" t="n">
-        <v>31463</v>
+        <v>184415.4</v>
       </c>
       <c r="K38" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1000376</v>
+        <v>1002356</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2211,30 +2211,30 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3738783.752303317</v>
+        <v>1731616.879461225</v>
       </c>
       <c r="G39" t="n">
-        <v>45862414.02825402</v>
+        <v>74968824.89902717</v>
       </c>
       <c r="H39" t="n">
-        <v>498504500.307109</v>
+        <v>814878531.5111649</v>
       </c>
       <c r="I39" t="n">
-        <v>1700967.960799095</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J39" t="n">
-        <v>112816.7</v>
+        <v>184415.4</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2243,11 +2243,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1000466</v>
+        <v>1002356</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2261,19 +2261,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8942678.720771465</v>
+        <v>6111588.986333736</v>
       </c>
       <c r="G40" t="n">
-        <v>109696858.9747967</v>
+        <v>74968824.89902717</v>
       </c>
       <c r="H40" t="n">
-        <v>1192357162.769529</v>
+        <v>814878531.5111649</v>
       </c>
       <c r="I40" t="n">
-        <v>4068491.519035055</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J40" t="n">
-        <v>269842.7</v>
+        <v>184415.4</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2289,11 +2289,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1002346</v>
+        <v>1002356</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2303,30 +2303,30 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1302156.852241312</v>
+        <v>30557944.93166868</v>
       </c>
       <c r="G41" t="n">
-        <v>15973124.05416009</v>
+        <v>40230541.31106549</v>
       </c>
       <c r="H41" t="n">
-        <v>173620913.6321749</v>
+        <v>437288492.5115814</v>
       </c>
       <c r="I41" t="n">
-        <v>592419.1481341877</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J41" t="n">
-        <v>39292.2</v>
+        <v>184415.4</v>
       </c>
       <c r="K41" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2349,17 +2349,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6111588.986333736</v>
+        <v>101859816.4388956</v>
       </c>
       <c r="G42" t="n">
-        <v>74968824.89902717</v>
+        <v>42202626.66945104</v>
       </c>
       <c r="H42" t="n">
-        <v>814878531.5111649</v>
+        <v>458724202.9288157</v>
       </c>
       <c r="I42" t="n">
         <v>2780480.964945345</v>
@@ -2381,11 +2381,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1002614</v>
+        <v>1002356</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2395,23 +2395,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>980122.2300953261</v>
+        <v>1558455.191515103</v>
       </c>
       <c r="G43" t="n">
-        <v>12022832.68916933</v>
+        <v>67471942.40912445</v>
       </c>
       <c r="H43" t="n">
-        <v>130682964.0127101</v>
+        <v>733390678.3600484</v>
       </c>
       <c r="I43" t="n">
-        <v>445908.7825103656</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J43" t="n">
-        <v>29574.9</v>
+        <v>184415.4</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2427,11 +2427,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1003422</v>
+        <v>1002356</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2441,23 +2441,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2963528.473643273</v>
+        <v>5500430.087700362</v>
       </c>
       <c r="G44" t="n">
-        <v>36352615.94335748</v>
+        <v>67471942.40912445</v>
       </c>
       <c r="H44" t="n">
-        <v>395137129.819103</v>
+        <v>733390678.3600484</v>
       </c>
       <c r="I44" t="n">
-        <v>1348263.852242744</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J44" t="n">
-        <v>89423.60000000001</v>
+        <v>184415.4</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2473,11 +2473,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1004033</v>
+        <v>1002356</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2487,23 +2487,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2074088.154837919</v>
+        <v>27502150.43850181</v>
       </c>
       <c r="G45" t="n">
-        <v>25442148.03267848</v>
+        <v>36207487.17995894</v>
       </c>
       <c r="H45" t="n">
-        <v>276545087.3117226</v>
+        <v>393559643.2604232</v>
       </c>
       <c r="I45" t="n">
-        <v>943611.0064078402</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J45" t="n">
-        <v>62585</v>
+        <v>184415.4</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2519,11 +2519,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1004276</v>
+        <v>1002356</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>ONE EARTH ENERGY LLC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2533,30 +2533,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6391326.593028421</v>
+        <v>91673834.79500604</v>
       </c>
       <c r="G46" t="n">
-        <v>78400272.87448196</v>
+        <v>37982364.00250594</v>
       </c>
       <c r="H46" t="n">
-        <v>852176879.0704561</v>
+        <v>412851782.6359342</v>
       </c>
       <c r="I46" t="n">
-        <v>2907748.209574067</v>
+        <v>2780480.964945345</v>
       </c>
       <c r="J46" t="n">
-        <v>192856.4</v>
+        <v>184415.4</v>
       </c>
       <c r="K46" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2565,11 +2565,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1004668</v>
+        <v>1002614</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2579,23 +2579,23 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2161293.644502224</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>26511868.70589395</v>
+        <v>3324947.363802902</v>
       </c>
       <c r="H47" t="n">
-        <v>288172485.9336299</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>983285.3373539388</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J47" t="n">
-        <v>65216.4</v>
+        <v>29574.9</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2611,11 +2611,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1004708</v>
+        <v>1002614</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2625,23 +2625,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1486181.844092386</v>
+        <v>277701.2985270091</v>
       </c>
       <c r="G48" t="n">
-        <v>18230497.28753327</v>
+        <v>12022832.68916933</v>
       </c>
       <c r="H48" t="n">
-        <v>198157579.2123182</v>
+        <v>130682964.0127101</v>
       </c>
       <c r="I48" t="n">
-        <v>676141.7263475312</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J48" t="n">
-        <v>44845.10000000001</v>
+        <v>29574.9</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2657,11 +2657,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1004861</v>
+        <v>1002614</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2675,19 +2675,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5426836.66112974</v>
+        <v>980122.2300953261</v>
       </c>
       <c r="G49" t="n">
-        <v>66569196.37652481</v>
+        <v>12022832.68916933</v>
       </c>
       <c r="H49" t="n">
-        <v>723578221.4839653</v>
+        <v>130682964.0127101</v>
       </c>
       <c r="I49" t="n">
-        <v>2468951.37580098</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J49" t="n">
-        <v>163753.2</v>
+        <v>29574.9</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2703,11 +2703,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1005019</v>
+        <v>1002614</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2717,30 +2717,30 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1680676.878314605</v>
+        <v>4900611.150476631</v>
       </c>
       <c r="G50" t="n">
-        <v>20616303.04065915</v>
+        <v>6121769.291014803</v>
       </c>
       <c r="H50" t="n">
-        <v>224090250.4419473</v>
+        <v>66540970.55450872</v>
       </c>
       <c r="I50" t="n">
-        <v>764627.6735603663</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J50" t="n">
-        <v>50714.1</v>
+        <v>29574.9</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2749,11 +2749,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1005170</v>
+        <v>1002614</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2763,23 +2763,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4840133.344712251</v>
+        <v>16335370.50158877</v>
       </c>
       <c r="G51" t="n">
-        <v>59372302.36180361</v>
+        <v>6443967.674752424</v>
       </c>
       <c r="H51" t="n">
-        <v>645351112.6283001</v>
+        <v>70043126.89948286</v>
       </c>
       <c r="I51" t="n">
-        <v>2202029.400678477</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J51" t="n">
-        <v>146049.6</v>
+        <v>29574.9</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2795,11 +2795,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1005374</v>
+        <v>1002614</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2809,23 +2809,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>16739970.96585288</v>
+        <v>249931.1686743082</v>
       </c>
       <c r="G52" t="n">
-        <v>205343643.8477954</v>
+        <v>10820549.4202524</v>
       </c>
       <c r="H52" t="n">
-        <v>2231996128.780385</v>
+        <v>117614667.6114391</v>
       </c>
       <c r="I52" t="n">
-        <v>7615886.920467395</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J52" t="n">
-        <v>505123.7</v>
+        <v>29574.9</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2841,11 +2841,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1006469</v>
+        <v>1002614</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2855,30 +2855,30 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5993453.617706259</v>
+        <v>882110.0070857934</v>
       </c>
       <c r="G53" t="n">
-        <v>73519697.7105301</v>
+        <v>10820549.4202524</v>
       </c>
       <c r="H53" t="n">
-        <v>799127149.0275011</v>
+        <v>117614667.6114391</v>
       </c>
       <c r="I53" t="n">
-        <v>2726735.01696193</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J53" t="n">
-        <v>180850.7</v>
+        <v>29574.9</v>
       </c>
       <c r="K53" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2887,11 +2887,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1006787</v>
+        <v>1002614</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2901,23 +2901,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5677092.62170245</v>
+        <v>4410550.035428967</v>
       </c>
       <c r="G54" t="n">
-        <v>69639002.82621673</v>
+        <v>5509592.361913322</v>
       </c>
       <c r="H54" t="n">
-        <v>756945682.8936601</v>
+        <v>59886873.49905784</v>
       </c>
       <c r="I54" t="n">
-        <v>2582805.880135695</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J54" t="n">
-        <v>171304.6</v>
+        <v>29574.9</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2933,11 +2933,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1012111</v>
+        <v>1002614</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>SOLAE CO GIBSON</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2947,26 +2947,26 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1021975.164995778</v>
+        <v>14701833.45142989</v>
       </c>
       <c r="G55" t="n">
-        <v>12536228.69061488</v>
+        <v>5799570.907277181</v>
       </c>
       <c r="H55" t="n">
-        <v>136263355.3327704</v>
+        <v>63038814.20953458</v>
       </c>
       <c r="I55" t="n">
-        <v>464949.8680738786</v>
+        <v>445908.7825103656</v>
       </c>
       <c r="J55" t="n">
-        <v>30837.8</v>
+        <v>29574.9</v>
       </c>
       <c r="K55" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2979,11 +2979,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1000037</v>
+        <v>1003422</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2993,30 +2993,30 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5213472.526617037</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>7482611.63513275</v>
+        <v>10053415.66942797</v>
       </c>
       <c r="H56" t="n">
-        <v>81332735.16448642</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>474376.177911798</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J56" t="n">
-        <v>31463</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3025,11 +3025,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1000376</v>
+        <v>1003422</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3039,30 +3039,30 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>18693918.76151659</v>
+        <v>839666.4008655938</v>
       </c>
       <c r="G57" t="n">
-        <v>23352160.43244879</v>
+        <v>36352615.94335748</v>
       </c>
       <c r="H57" t="n">
-        <v>253827830.7874869</v>
+        <v>395137129.819103</v>
       </c>
       <c r="I57" t="n">
-        <v>1700967.960799095</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J57" t="n">
-        <v>112816.7</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3071,11 +3071,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1000466</v>
+        <v>1003422</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3085,23 +3085,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>44713393.60385733</v>
+        <v>2963528.473643273</v>
       </c>
       <c r="G58" t="n">
-        <v>58866655.87494021</v>
+        <v>36352615.94335748</v>
       </c>
       <c r="H58" t="n">
-        <v>639854955.1623936</v>
+        <v>395137129.819103</v>
       </c>
       <c r="I58" t="n">
-        <v>4068491.519035055</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J58" t="n">
-        <v>269842.7</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3117,11 +3117,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1002346</v>
+        <v>1003422</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3135,26 +3135,26 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6510784.261206559</v>
+        <v>14817642.36821636</v>
       </c>
       <c r="G59" t="n">
-        <v>9344572.128848586</v>
+        <v>19507914.38233572</v>
       </c>
       <c r="H59" t="n">
-        <v>101571436.1831368</v>
+        <v>212042547.634084</v>
       </c>
       <c r="I59" t="n">
-        <v>592419.1481341877</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J59" t="n">
-        <v>39292.2</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3163,11 +3163,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1002356</v>
+        <v>1003422</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3177,23 +3177,23 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>30557944.93166868</v>
+        <v>49392141.22738788</v>
       </c>
       <c r="G60" t="n">
-        <v>40230541.31106549</v>
+        <v>20464184.69519532</v>
       </c>
       <c r="H60" t="n">
-        <v>437288492.5115814</v>
+        <v>222436790.1651665</v>
       </c>
       <c r="I60" t="n">
-        <v>2780480.964945345</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J60" t="n">
-        <v>184415.4</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3209,11 +3209,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1002614</v>
+        <v>1003422</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3223,23 +3223,23 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4900611.150476631</v>
+        <v>755699.7607790346</v>
       </c>
       <c r="G61" t="n">
-        <v>6121769.291014803</v>
+        <v>32717354.34902173</v>
       </c>
       <c r="H61" t="n">
-        <v>66540970.55450872</v>
+        <v>355623416.8371927</v>
       </c>
       <c r="I61" t="n">
-        <v>445908.7825103656</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J61" t="n">
-        <v>29574.9</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>14817642.36821636</v>
+        <v>2667175.626278945</v>
       </c>
       <c r="G62" t="n">
-        <v>19507914.38233572</v>
+        <v>32717354.34902173</v>
       </c>
       <c r="H62" t="n">
-        <v>212042547.634084</v>
+        <v>355623416.8371927</v>
       </c>
       <c r="I62" t="n">
         <v>1348263.852242744</v>
@@ -3301,11 +3301,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1004033</v>
+        <v>1003422</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3315,23 +3315,23 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10370440.7741896</v>
+        <v>13335878.13139473</v>
       </c>
       <c r="G63" t="n">
-        <v>12954597.68513711</v>
+        <v>17557122.94410215</v>
       </c>
       <c r="H63" t="n">
-        <v>140810844.4036642</v>
+        <v>190838292.8706756</v>
       </c>
       <c r="I63" t="n">
-        <v>943611.0064078402</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J63" t="n">
-        <v>62585</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3347,11 +3347,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1004276</v>
+        <v>1003422</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>ADKINS ENERGY LLC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3361,30 +3361,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>31956632.9651421</v>
+        <v>44452927.10464909</v>
       </c>
       <c r="G64" t="n">
-        <v>42071960.1904362</v>
+        <v>18417766.22567579</v>
       </c>
       <c r="H64" t="n">
-        <v>457303915.113437</v>
+        <v>200193111.1486499</v>
       </c>
       <c r="I64" t="n">
-        <v>2907748.209574067</v>
+        <v>1348263.852242744</v>
       </c>
       <c r="J64" t="n">
-        <v>192856.4</v>
+        <v>89423.60000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3393,11 +3393,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1004668</v>
+        <v>1004033</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3407,23 +3407,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10806468.22251112</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>14227071.46127151</v>
+        <v>7036095.836794195</v>
       </c>
       <c r="H65" t="n">
-        <v>154642081.1007773</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>983285.3373539388</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J65" t="n">
-        <v>65216.4</v>
+        <v>62585</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3439,11 +3439,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1004708</v>
+        <v>1004033</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3453,23 +3453,23 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7430909.220461931</v>
+        <v>587658.3105374104</v>
       </c>
       <c r="G66" t="n">
-        <v>17438907.65571034</v>
+        <v>25442148.03267848</v>
       </c>
       <c r="H66" t="n">
-        <v>189553344.0838081</v>
+        <v>276545087.3117226</v>
       </c>
       <c r="I66" t="n">
-        <v>676141.7263475312</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J66" t="n">
-        <v>44845.10000000001</v>
+        <v>62585</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3485,11 +3485,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1004861</v>
+        <v>1004033</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3499,23 +3499,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>27134183.3056487</v>
+        <v>2074088.154837919</v>
       </c>
       <c r="G67" t="n">
-        <v>36485792.08944333</v>
+        <v>25442148.03267848</v>
       </c>
       <c r="H67" t="n">
-        <v>396584696.624384</v>
+        <v>276545087.3117226</v>
       </c>
       <c r="I67" t="n">
-        <v>2468951.37580098</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J67" t="n">
-        <v>163753.2</v>
+        <v>62585</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3531,11 +3531,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1005019</v>
+        <v>1004033</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3549,26 +3549,26 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8403384.391573023</v>
+        <v>10370440.7741896</v>
       </c>
       <c r="G68" t="n">
-        <v>10497380.61831767</v>
+        <v>12954597.68513711</v>
       </c>
       <c r="H68" t="n">
-        <v>114101963.2425834</v>
+        <v>140810844.4036642</v>
       </c>
       <c r="I68" t="n">
-        <v>764627.6735603663</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J68" t="n">
-        <v>50714.1</v>
+        <v>62585</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1005170</v>
+        <v>1004033</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3591,23 +3591,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>24200666.72356125</v>
+        <v>34568135.91396532</v>
       </c>
       <c r="G69" t="n">
-        <v>31860975.0935366</v>
+        <v>13636418.6159338</v>
       </c>
       <c r="H69" t="n">
-        <v>346314946.6688761</v>
+        <v>148221941.4775413</v>
       </c>
       <c r="I69" t="n">
-        <v>2202029.400678477</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J69" t="n">
-        <v>146049.6</v>
+        <v>62585</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3623,11 +3623,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1005374</v>
+        <v>1004033</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3637,23 +3637,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>83699854.82926442</v>
+        <v>528892.4794836694</v>
       </c>
       <c r="G70" t="n">
-        <v>110193616.5854275</v>
+        <v>22897933.22941063</v>
       </c>
       <c r="H70" t="n">
-        <v>1197756702.015516</v>
+        <v>248890578.5805503</v>
       </c>
       <c r="I70" t="n">
-        <v>7615886.920467395</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J70" t="n">
-        <v>505123.7</v>
+        <v>62585</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3669,11 +3669,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1006469</v>
+        <v>1004033</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3683,30 +3683,30 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>29967268.08853129</v>
+        <v>1866679.339354127</v>
       </c>
       <c r="G71" t="n">
-        <v>39452895.78573758</v>
+        <v>22897933.22941063</v>
       </c>
       <c r="H71" t="n">
-        <v>428835823.7580172</v>
+        <v>248890578.5805503</v>
       </c>
       <c r="I71" t="n">
-        <v>2726735.01696193</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J71" t="n">
-        <v>180850.7</v>
+        <v>62585</v>
       </c>
       <c r="K71" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3715,11 +3715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1006787</v>
+        <v>1004033</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3729,23 +3729,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>28385463.10851225</v>
+        <v>9333396.696770636</v>
       </c>
       <c r="G72" t="n">
-        <v>37370397.41299017</v>
+        <v>11659137.91662339</v>
       </c>
       <c r="H72" t="n">
-        <v>406199971.8803279</v>
+        <v>126729759.9632978</v>
       </c>
       <c r="I72" t="n">
-        <v>2582805.880135695</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J72" t="n">
-        <v>171304.6</v>
+        <v>62585</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3761,11 +3761,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1012111</v>
+        <v>1004033</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>INCOBRASA INDUSTRIES LTD</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3775,26 +3775,26 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5109875.824978892</v>
+        <v>31111322.32256879</v>
       </c>
       <c r="G73" t="n">
-        <v>7333924.962079162</v>
+        <v>12272776.75434042</v>
       </c>
       <c r="H73" t="n">
-        <v>79716575.6747735</v>
+        <v>133399747.3297871</v>
       </c>
       <c r="I73" t="n">
-        <v>464949.8680738786</v>
+        <v>943611.0064078402</v>
       </c>
       <c r="J73" t="n">
-        <v>30837.8</v>
+        <v>62585</v>
       </c>
       <c r="K73" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3807,11 +3807,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1000037</v>
+        <v>1004276</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3821,30 +3821,30 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17378241.75539013</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>7807942.575790696</v>
+        <v>21681810.54788074</v>
       </c>
       <c r="H74" t="n">
-        <v>84868941.04120322</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>474376.177911798</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J74" t="n">
-        <v>31463</v>
+        <v>192856.4</v>
       </c>
       <c r="K74" t="n">
-        <v>7909.900000000001</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -3853,11 +3853,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1000376</v>
+        <v>1004276</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3867,30 +3867,30 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>62313062.53838862</v>
+        <v>1810875.868024719</v>
       </c>
       <c r="G75" t="n">
-        <v>24581221.50784083</v>
+        <v>78400272.87448196</v>
       </c>
       <c r="H75" t="n">
-        <v>267187190.3026177</v>
+        <v>852176879.0704561</v>
       </c>
       <c r="I75" t="n">
-        <v>1700967.960799095</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J75" t="n">
-        <v>112816.7</v>
+        <v>192856.4</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -3899,11 +3899,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1000466</v>
+        <v>1004276</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3913,30 +3913,30 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>149044645.3461911</v>
+        <v>6391326.593028421</v>
       </c>
       <c r="G76" t="n">
-        <v>61752276.26096668</v>
+        <v>78400272.87448196</v>
       </c>
       <c r="H76" t="n">
-        <v>671220394.1409422</v>
+        <v>852176879.0704561</v>
       </c>
       <c r="I76" t="n">
-        <v>4068491.519035055</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J76" t="n">
-        <v>269842.7</v>
+        <v>192856.4</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -3945,11 +3945,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1002346</v>
+        <v>1004276</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3959,30 +3959,30 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>21702614.20402186</v>
+        <v>31956632.9651421</v>
       </c>
       <c r="G77" t="n">
-        <v>9750857.873581132</v>
+        <v>42071960.1904362</v>
       </c>
       <c r="H77" t="n">
-        <v>105987585.5824036</v>
+        <v>457303915.113437</v>
       </c>
       <c r="I77" t="n">
-        <v>592419.1481341877</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J77" t="n">
-        <v>39292.2</v>
+        <v>192856.4</v>
       </c>
       <c r="K77" t="n">
-        <v>7042.5</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -3991,11 +3991,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1002356</v>
+        <v>1004276</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4009,26 +4009,26 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>101859816.4388956</v>
+        <v>106522109.883807</v>
       </c>
       <c r="G78" t="n">
-        <v>42202626.66945104</v>
+        <v>44134311.18016347</v>
       </c>
       <c r="H78" t="n">
-        <v>458724202.9288157</v>
+        <v>479720773.697429</v>
       </c>
       <c r="I78" t="n">
-        <v>2780480.964945345</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J78" t="n">
-        <v>184415.4</v>
+        <v>192856.4</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -4037,11 +4037,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1002614</v>
+        <v>1004276</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16335370.50158877</v>
+        <v>1629788.281222248</v>
       </c>
       <c r="G79" t="n">
-        <v>6443967.674752424</v>
+        <v>70560245.58703376</v>
       </c>
       <c r="H79" t="n">
-        <v>70043126.89948286</v>
+        <v>766959191.1634105</v>
       </c>
       <c r="I79" t="n">
-        <v>445908.7825103656</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J79" t="n">
-        <v>29574.9</v>
+        <v>192856.4</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -4083,11 +4083,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1003422</v>
+        <v>1004276</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4097,30 +4097,30 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>49392141.22738788</v>
+        <v>5752193.933725579</v>
       </c>
       <c r="G80" t="n">
-        <v>20464184.69519532</v>
+        <v>70560245.58703376</v>
       </c>
       <c r="H80" t="n">
-        <v>222436790.1651665</v>
+        <v>766959191.1634105</v>
       </c>
       <c r="I80" t="n">
-        <v>1348263.852242744</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J80" t="n">
-        <v>89423.60000000001</v>
+        <v>192856.4</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -4129,11 +4129,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1004033</v>
+        <v>1004276</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>CHS-Rochelle</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4143,30 +4143,30 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>34568135.91396532</v>
+        <v>28760969.6686279</v>
       </c>
       <c r="G81" t="n">
-        <v>13636418.6159338</v>
+        <v>37864764.17139258</v>
       </c>
       <c r="H81" t="n">
-        <v>148221941.4775413</v>
+        <v>411573523.6020933</v>
       </c>
       <c r="I81" t="n">
-        <v>943611.0064078402</v>
+        <v>2907748.209574067</v>
       </c>
       <c r="J81" t="n">
-        <v>62585</v>
+        <v>192856.4</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>244.2999999999884</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -4189,17 +4189,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>106522109.883807</v>
+        <v>95869898.89542632</v>
       </c>
       <c r="G82" t="n">
-        <v>44134311.18016347</v>
+        <v>39720880.06214713</v>
       </c>
       <c r="H82" t="n">
-        <v>479720773.697429</v>
+        <v>431748696.3276861</v>
       </c>
       <c r="I82" t="n">
         <v>2907748.209574067</v>
@@ -4235,17 +4235,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>36021560.74170373</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>14924476.92505933</v>
+        <v>7331930.023659103</v>
       </c>
       <c r="H83" t="n">
-        <v>162222575.272384</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>983285.3373539388</v>
@@ -4267,11 +4267,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1004708</v>
+        <v>1004668</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4281,23 +4281,23 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>24769697.40153977</v>
+        <v>612366.5326089634</v>
       </c>
       <c r="G84" t="n">
-        <v>17780847.02150859</v>
+        <v>26511868.70589395</v>
       </c>
       <c r="H84" t="n">
-        <v>193270076.3207455</v>
+        <v>288172485.9336299</v>
       </c>
       <c r="I84" t="n">
-        <v>676141.7263475312</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J84" t="n">
-        <v>44845.10000000001</v>
+        <v>65216.4</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4313,11 +4313,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1004861</v>
+        <v>1004668</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4327,23 +4327,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>90447277.68549566</v>
+        <v>2161293.644502224</v>
       </c>
       <c r="G85" t="n">
-        <v>38223210.7603692</v>
+        <v>26511868.70589395</v>
       </c>
       <c r="H85" t="n">
-        <v>415469682.1779261</v>
+        <v>288172485.9336299</v>
       </c>
       <c r="I85" t="n">
-        <v>2468951.37580098</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J85" t="n">
-        <v>163753.2</v>
+        <v>65216.4</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4359,11 +4359,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1005019</v>
+        <v>1004668</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4373,30 +4373,30 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>28011281.30524341</v>
+        <v>10806468.22251112</v>
       </c>
       <c r="G86" t="n">
-        <v>11049874.33507123</v>
+        <v>14227071.46127151</v>
       </c>
       <c r="H86" t="n">
-        <v>120107329.7290351</v>
+        <v>154642081.1007773</v>
       </c>
       <c r="I86" t="n">
-        <v>764627.6735603663</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J86" t="n">
-        <v>50714.1</v>
+        <v>65216.4</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4405,11 +4405,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1005170</v>
+        <v>1004668</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4423,19 +4423,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>80668889.07853751</v>
+        <v>36021560.74170373</v>
       </c>
       <c r="G87" t="n">
-        <v>33422787.59812173</v>
+        <v>14924476.92505933</v>
       </c>
       <c r="H87" t="n">
-        <v>363291169.5448014</v>
+        <v>162222575.272384</v>
       </c>
       <c r="I87" t="n">
-        <v>2202029.400678477</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J87" t="n">
-        <v>146049.6</v>
+        <v>65216.4</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4451,11 +4451,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1005374</v>
+        <v>1004668</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4465,23 +4465,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>278999516.0975481</v>
+        <v>551129.8793480671</v>
       </c>
       <c r="G88" t="n">
-        <v>115595264.4572622</v>
+        <v>23860681.83530455</v>
       </c>
       <c r="H88" t="n">
-        <v>1256470265.839806</v>
+        <v>259355237.3402669</v>
       </c>
       <c r="I88" t="n">
-        <v>7615886.920467395</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J88" t="n">
-        <v>505123.7</v>
+        <v>65216.4</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4497,11 +4497,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1006469</v>
+        <v>1004668</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4511,30 +4511,30 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>99890893.62843764</v>
+        <v>1945164.280052002</v>
       </c>
       <c r="G89" t="n">
-        <v>41386861.2654306</v>
+        <v>23860681.83530455</v>
       </c>
       <c r="H89" t="n">
-        <v>449857187.667724</v>
+        <v>259355237.3402669</v>
       </c>
       <c r="I89" t="n">
-        <v>2726735.01696193</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J89" t="n">
-        <v>180850.7</v>
+        <v>65216.4</v>
       </c>
       <c r="K89" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4543,11 +4543,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1006787</v>
+        <v>1004668</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4557,23 +4557,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>94618210.36170751</v>
+        <v>9725821.400260007</v>
       </c>
       <c r="G90" t="n">
-        <v>39202279.63911714</v>
+        <v>12804364.31514436</v>
       </c>
       <c r="H90" t="n">
-        <v>426111735.207795</v>
+        <v>139177872.9906996</v>
       </c>
       <c r="I90" t="n">
-        <v>2582805.880135695</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J90" t="n">
-        <v>171304.6</v>
+        <v>65216.4</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4589,11 +4589,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1012111</v>
+        <v>1004668</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4603,26 +4603,26 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17032919.4165963</v>
+        <v>32419404.66753336</v>
       </c>
       <c r="G91" t="n">
-        <v>7652791.264778257</v>
+        <v>13432029.2325534</v>
       </c>
       <c r="H91" t="n">
-        <v>83182513.74758975</v>
+        <v>146000317.7451456</v>
       </c>
       <c r="I91" t="n">
-        <v>464949.8680738786</v>
+        <v>983285.3373539388</v>
       </c>
       <c r="J91" t="n">
-        <v>30837.8</v>
+        <v>65216.4</v>
       </c>
       <c r="K91" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4635,11 +4635,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1000037</v>
+        <v>1004708</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4649,30 +4649,30 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>265887.0988574689</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>11511347.33877042</v>
+        <v>5041694.038677309</v>
       </c>
       <c r="H92" t="n">
-        <v>125123340.6388089</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>474376.177911798</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J92" t="n">
-        <v>31463</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4681,11 +4681,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1000376</v>
+        <v>1004708</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>953389.8568373459</v>
+        <v>421084.8558261761</v>
       </c>
       <c r="G93" t="n">
-        <v>41276172.62542862</v>
+        <v>18230497.28753327</v>
       </c>
       <c r="H93" t="n">
-        <v>448654050.2763981</v>
+        <v>198157579.2123182</v>
       </c>
       <c r="I93" t="n">
-        <v>1700967.960799095</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J93" t="n">
-        <v>112816.7</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1000466</v>
+        <v>1004708</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4741,23 +4741,23 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2280383.073796724</v>
+        <v>1486181.844092386</v>
       </c>
       <c r="G94" t="n">
-        <v>98727173.07731698</v>
+        <v>18230497.28753327</v>
       </c>
       <c r="H94" t="n">
-        <v>1073121446.492576</v>
+        <v>198157579.2123182</v>
       </c>
       <c r="I94" t="n">
-        <v>4068491.519035055</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J94" t="n">
-        <v>269842.7</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4773,11 +4773,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1002346</v>
+        <v>1004708</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4787,30 +4787,30 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>332049.9973215345</v>
+        <v>7430909.220461931</v>
       </c>
       <c r="G95" t="n">
-        <v>14375811.64874408</v>
+        <v>17438907.65571034</v>
       </c>
       <c r="H95" t="n">
-        <v>156258822.2689574</v>
+        <v>189553344.0838081</v>
       </c>
       <c r="I95" t="n">
-        <v>592419.1481341877</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J95" t="n">
-        <v>39292.2</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4819,11 +4819,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1002356</v>
+        <v>1004708</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4833,23 +4833,23 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1558455.191515103</v>
+        <v>24769697.40153977</v>
       </c>
       <c r="G96" t="n">
-        <v>67471942.40912445</v>
+        <v>17780847.02150859</v>
       </c>
       <c r="H96" t="n">
-        <v>733390678.3600484</v>
+        <v>193270076.3207455</v>
       </c>
       <c r="I96" t="n">
-        <v>2780480.964945345</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J96" t="n">
-        <v>184415.4</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1002614</v>
+        <v>1004708</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4883,19 +4883,19 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>249931.1686743082</v>
+        <v>378976.3702435585</v>
       </c>
       <c r="G97" t="n">
-        <v>10820549.4202524</v>
+        <v>16407447.55877995</v>
       </c>
       <c r="H97" t="n">
-        <v>117614667.6114391</v>
+        <v>178341821.2910864</v>
       </c>
       <c r="I97" t="n">
-        <v>445908.7825103656</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J97" t="n">
-        <v>29574.9</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -4911,11 +4911,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1003422</v>
+        <v>1004708</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4925,23 +4925,23 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>755699.7607790346</v>
+        <v>1337563.659683148</v>
       </c>
       <c r="G98" t="n">
-        <v>32717354.34902173</v>
+        <v>16407447.55877995</v>
       </c>
       <c r="H98" t="n">
-        <v>355623416.8371927</v>
+        <v>178341821.2910864</v>
       </c>
       <c r="I98" t="n">
-        <v>1348263.852242744</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J98" t="n">
-        <v>89423.60000000001</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4957,11 +4957,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1004033</v>
+        <v>1004708</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4971,23 +4971,23 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>528892.4794836694</v>
+        <v>6687818.298415738</v>
       </c>
       <c r="G99" t="n">
-        <v>22897933.22941063</v>
+        <v>15695016.89013931</v>
       </c>
       <c r="H99" t="n">
-        <v>248890578.5805503</v>
+        <v>170598009.6754273</v>
       </c>
       <c r="I99" t="n">
-        <v>943611.0064078402</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J99" t="n">
-        <v>62585</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5003,11 +5003,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1004276</v>
+        <v>1004708</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5017,30 +5017,30 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1629788.281222248</v>
+        <v>22292727.66138579</v>
       </c>
       <c r="G100" t="n">
-        <v>70560245.58703376</v>
+        <v>16002762.31935773</v>
       </c>
       <c r="H100" t="n">
-        <v>766959191.1634105</v>
+        <v>173943068.688671</v>
       </c>
       <c r="I100" t="n">
-        <v>2907748.209574067</v>
+        <v>676141.7263475312</v>
       </c>
       <c r="J100" t="n">
-        <v>192856.4</v>
+        <v>44845.10000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5049,11 +5049,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1004668</v>
+        <v>1004861</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5063,23 +5063,23 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>551129.8793480671</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>23860681.83530455</v>
+        <v>18409893.88482427</v>
       </c>
       <c r="H101" t="n">
-        <v>259355237.3402669</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>983285.3373539388</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J101" t="n">
-        <v>65216.4</v>
+        <v>163753.2</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -5095,11 +5095,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1004708</v>
+        <v>1004861</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5109,23 +5109,23 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>378976.3702435585</v>
+        <v>1537603.720653426</v>
       </c>
       <c r="G102" t="n">
-        <v>16407447.55877995</v>
+        <v>66569196.37652481</v>
       </c>
       <c r="H102" t="n">
-        <v>178341821.2910864</v>
+        <v>723578221.4839653</v>
       </c>
       <c r="I102" t="n">
-        <v>676141.7263475312</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J102" t="n">
-        <v>44845.10000000001</v>
+        <v>163753.2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5155,17 +5155,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1383843.348588084</v>
+        <v>5426836.66112974</v>
       </c>
       <c r="G103" t="n">
-        <v>59912276.73887233</v>
+        <v>66569196.37652481</v>
       </c>
       <c r="H103" t="n">
-        <v>651220399.3355688</v>
+        <v>723578221.4839653</v>
       </c>
       <c r="I103" t="n">
         <v>2468951.37580098</v>
@@ -5187,11 +5187,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1005019</v>
+        <v>1004861</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5201,30 +5201,30 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>428572.6039702242</v>
+        <v>27134183.3056487</v>
       </c>
       <c r="G104" t="n">
-        <v>18554672.73659324</v>
+        <v>36485792.08944333</v>
       </c>
       <c r="H104" t="n">
-        <v>201681225.3977526</v>
+        <v>396584696.624384</v>
       </c>
       <c r="I104" t="n">
-        <v>764627.6735603663</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J104" t="n">
-        <v>50714.1</v>
+        <v>163753.2</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5233,11 +5233,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1005170</v>
+        <v>1004861</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5247,23 +5247,23 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1234234.002901624</v>
+        <v>90447277.68549566</v>
       </c>
       <c r="G105" t="n">
-        <v>53435072.12562324</v>
+        <v>38223210.7603692</v>
       </c>
       <c r="H105" t="n">
-        <v>580816001.3654701</v>
+        <v>415469682.1779261</v>
       </c>
       <c r="I105" t="n">
-        <v>2202029.400678477</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J105" t="n">
-        <v>146049.6</v>
+        <v>163753.2</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -5279,11 +5279,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1005374</v>
+        <v>1004861</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5297,19 +5297,19 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4268692.596292485</v>
+        <v>1383843.348588084</v>
       </c>
       <c r="G106" t="n">
-        <v>184809279.4630159</v>
+        <v>59912276.73887233</v>
       </c>
       <c r="H106" t="n">
-        <v>2008796515.902346</v>
+        <v>651220399.3355688</v>
       </c>
       <c r="I106" t="n">
-        <v>7615886.920467395</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J106" t="n">
-        <v>505123.7</v>
+        <v>163753.2</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -5325,11 +5325,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1006469</v>
+        <v>1004861</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5339,30 +5339,30 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1528330.672515096</v>
+        <v>4884152.995016766</v>
       </c>
       <c r="G107" t="n">
-        <v>66167727.93947709</v>
+        <v>59912276.73887233</v>
       </c>
       <c r="H107" t="n">
-        <v>719214434.124751</v>
+        <v>651220399.3355688</v>
       </c>
       <c r="I107" t="n">
-        <v>2726735.01696193</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J107" t="n">
-        <v>180850.7</v>
+        <v>163753.2</v>
       </c>
       <c r="K107" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5371,11 +5371,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1006787</v>
+        <v>1004861</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5385,23 +5385,23 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1447658.618534125</v>
+        <v>24420764.97508383</v>
       </c>
       <c r="G108" t="n">
-        <v>62675102.54359505</v>
+        <v>32837212.88049899</v>
       </c>
       <c r="H108" t="n">
-        <v>681251114.6042941</v>
+        <v>356926226.9619456</v>
       </c>
       <c r="I108" t="n">
-        <v>2582805.880135695</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J108" t="n">
-        <v>171304.6</v>
+        <v>163753.2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -5417,11 +5417,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1012111</v>
+        <v>1004861</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Alto ICP, LLC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5431,26 +5431,26 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>260603.6670739235</v>
+        <v>81402549.9169461</v>
       </c>
       <c r="G109" t="n">
-        <v>11282605.82155339</v>
+        <v>34400889.68433228</v>
       </c>
       <c r="H109" t="n">
-        <v>122637019.7994934</v>
+        <v>373922713.9601335</v>
       </c>
       <c r="I109" t="n">
-        <v>464949.8680738786</v>
+        <v>2468951.37580098</v>
       </c>
       <c r="J109" t="n">
-        <v>30837.8</v>
+        <v>163753.2</v>
       </c>
       <c r="K109" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5463,11 +5463,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1000037</v>
+        <v>1005019</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5477,30 +5477,30 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>938425.0547910668</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>11511347.33877042</v>
+        <v>5701645.313581191</v>
       </c>
       <c r="H110" t="n">
-        <v>125123340.6388089</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>474376.177911798</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J110" t="n">
-        <v>31463</v>
+        <v>50714.1</v>
       </c>
       <c r="K110" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5509,11 +5509,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1000376</v>
+        <v>1005019</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5523,30 +5523,30 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3364905.377072986</v>
+        <v>476191.782189138</v>
       </c>
       <c r="G111" t="n">
-        <v>41276172.62542862</v>
+        <v>20616303.04065915</v>
       </c>
       <c r="H111" t="n">
-        <v>448654050.2763981</v>
+        <v>224090250.4419473</v>
       </c>
       <c r="I111" t="n">
-        <v>1700967.960799095</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J111" t="n">
-        <v>112816.7</v>
+        <v>50714.1</v>
       </c>
       <c r="K111" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5555,11 +5555,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1000466</v>
+        <v>1005019</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5569,30 +5569,30 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>8048410.848694321</v>
+        <v>1680676.878314605</v>
       </c>
       <c r="G112" t="n">
-        <v>98727173.07731698</v>
+        <v>20616303.04065915</v>
       </c>
       <c r="H112" t="n">
-        <v>1073121446.492576</v>
+        <v>224090250.4419473</v>
       </c>
       <c r="I112" t="n">
-        <v>4068491.519035055</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J112" t="n">
-        <v>269842.7</v>
+        <v>50714.1</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5601,11 +5601,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1002346</v>
+        <v>1005019</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5615,30 +5615,30 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1171941.167017181</v>
+        <v>8403384.391573023</v>
       </c>
       <c r="G113" t="n">
-        <v>14375811.64874408</v>
+        <v>10497380.61831767</v>
       </c>
       <c r="H113" t="n">
-        <v>156258822.2689574</v>
+        <v>114101963.2425834</v>
       </c>
       <c r="I113" t="n">
-        <v>592419.1481341877</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J113" t="n">
-        <v>39292.2</v>
+        <v>50714.1</v>
       </c>
       <c r="K113" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5647,11 +5647,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1002356</v>
+        <v>1005019</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5661,30 +5661,30 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5500430.087700362</v>
+        <v>28011281.30524341</v>
       </c>
       <c r="G114" t="n">
-        <v>67471942.40912445</v>
+        <v>11049874.33507123</v>
       </c>
       <c r="H114" t="n">
-        <v>733390678.3600484</v>
+        <v>120107329.7290351</v>
       </c>
       <c r="I114" t="n">
-        <v>2780480.964945345</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J114" t="n">
-        <v>184415.4</v>
+        <v>50714.1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5693,11 +5693,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1002614</v>
+        <v>1005019</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5707,30 +5707,30 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>882110.0070857934</v>
+        <v>428572.6039702242</v>
       </c>
       <c r="G115" t="n">
-        <v>10820549.4202524</v>
+        <v>18554672.73659324</v>
       </c>
       <c r="H115" t="n">
-        <v>117614667.6114391</v>
+        <v>201681225.3977526</v>
       </c>
       <c r="I115" t="n">
-        <v>445908.7825103656</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J115" t="n">
-        <v>29574.9</v>
+        <v>50714.1</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5739,11 +5739,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1003422</v>
+        <v>1005019</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5757,26 +5757,26 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2667175.626278945</v>
+        <v>1512609.190483144</v>
       </c>
       <c r="G116" t="n">
-        <v>32717354.34902173</v>
+        <v>18554672.73659324</v>
       </c>
       <c r="H116" t="n">
-        <v>355623416.8371927</v>
+        <v>201681225.3977526</v>
       </c>
       <c r="I116" t="n">
-        <v>1348263.852242744</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J116" t="n">
-        <v>89423.60000000001</v>
+        <v>50714.1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5785,11 +5785,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1004033</v>
+        <v>1005019</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5799,30 +5799,30 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1866679.339354127</v>
+        <v>7563045.952415721</v>
       </c>
       <c r="G117" t="n">
-        <v>22897933.22941063</v>
+        <v>9447642.556485903</v>
       </c>
       <c r="H117" t="n">
-        <v>248890578.5805503</v>
+        <v>102691766.918325</v>
       </c>
       <c r="I117" t="n">
-        <v>943611.0064078402</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J117" t="n">
-        <v>62585</v>
+        <v>50714.1</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5831,11 +5831,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1004276</v>
+        <v>1005019</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5845,30 +5845,30 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5752193.933725579</v>
+        <v>25210153.17471907</v>
       </c>
       <c r="G118" t="n">
-        <v>70560245.58703376</v>
+        <v>9944886.901564108</v>
       </c>
       <c r="H118" t="n">
-        <v>766959191.1634105</v>
+        <v>108096596.7561316</v>
       </c>
       <c r="I118" t="n">
-        <v>2907748.209574067</v>
+        <v>764627.6735603663</v>
       </c>
       <c r="J118" t="n">
-        <v>192856.4</v>
+        <v>50714.1</v>
       </c>
       <c r="K118" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -5877,11 +5877,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1004668</v>
+        <v>1005170</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1945164.280052002</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>23860681.83530455</v>
+        <v>16419573.10098997</v>
       </c>
       <c r="H119" t="n">
-        <v>259355237.3402669</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>983285.3373539388</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J119" t="n">
-        <v>65216.4</v>
+        <v>146049.6</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5923,11 +5923,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1004708</v>
+        <v>1005170</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5937,23 +5937,23 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1337563.659683148</v>
+        <v>1371371.114335138</v>
       </c>
       <c r="G120" t="n">
-        <v>16407447.55877995</v>
+        <v>59372302.36180361</v>
       </c>
       <c r="H120" t="n">
-        <v>178341821.2910864</v>
+        <v>645351112.6283001</v>
       </c>
       <c r="I120" t="n">
-        <v>676141.7263475312</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J120" t="n">
-        <v>44845.10000000001</v>
+        <v>146049.6</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5969,11 +5969,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1004861</v>
+        <v>1005170</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5983,23 +5983,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4884152.995016766</v>
+        <v>4840133.344712251</v>
       </c>
       <c r="G121" t="n">
-        <v>59912276.73887233</v>
+        <v>59372302.36180361</v>
       </c>
       <c r="H121" t="n">
-        <v>651220399.3355688</v>
+        <v>645351112.6283001</v>
       </c>
       <c r="I121" t="n">
-        <v>2468951.37580098</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J121" t="n">
-        <v>163753.2</v>
+        <v>146049.6</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -6015,11 +6015,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1005019</v>
+        <v>1005170</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6029,30 +6029,30 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1512609.190483144</v>
+        <v>24200666.72356125</v>
       </c>
       <c r="G122" t="n">
-        <v>18554672.73659324</v>
+        <v>31860975.0935366</v>
       </c>
       <c r="H122" t="n">
-        <v>201681225.3977526</v>
+        <v>346314946.6688761</v>
       </c>
       <c r="I122" t="n">
-        <v>764627.6735603663</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J122" t="n">
-        <v>50714.1</v>
+        <v>146049.6</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6075,17 +6075,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4356120.010241026</v>
+        <v>80668889.07853751</v>
       </c>
       <c r="G123" t="n">
-        <v>53435072.12562324</v>
+        <v>33422787.59812173</v>
       </c>
       <c r="H123" t="n">
-        <v>580816001.3654701</v>
+        <v>363291169.5448014</v>
       </c>
       <c r="I123" t="n">
         <v>2202029.400678477</v>
@@ -6107,11 +6107,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1005374</v>
+        <v>1005170</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6121,23 +6121,23 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>15065973.8692676</v>
+        <v>1234234.002901624</v>
       </c>
       <c r="G124" t="n">
-        <v>184809279.4630159</v>
+        <v>53435072.12562324</v>
       </c>
       <c r="H124" t="n">
-        <v>2008796515.902346</v>
+        <v>580816001.3654701</v>
       </c>
       <c r="I124" t="n">
-        <v>7615886.920467395</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J124" t="n">
-        <v>505123.7</v>
+        <v>146049.6</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -6153,11 +6153,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1006469</v>
+        <v>1005170</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6171,26 +6171,26 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5394108.255935633</v>
+        <v>4356120.010241026</v>
       </c>
       <c r="G125" t="n">
-        <v>66167727.93947709</v>
+        <v>53435072.12562324</v>
       </c>
       <c r="H125" t="n">
-        <v>719214434.124751</v>
+        <v>580816001.3654701</v>
       </c>
       <c r="I125" t="n">
-        <v>2726735.01696193</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J125" t="n">
-        <v>180850.7</v>
+        <v>146049.6</v>
       </c>
       <c r="K125" t="n">
-        <v>123.6999999999825</v>
+        <v>0</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6199,11 +6199,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1006787</v>
+        <v>1005170</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6213,23 +6213,23 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>5109383.359532205</v>
+        <v>21780600.05120513</v>
       </c>
       <c r="G126" t="n">
-        <v>62675102.54359505</v>
+        <v>28674877.58418293</v>
       </c>
       <c r="H126" t="n">
-        <v>681251114.6042941</v>
+        <v>311683452.0019884</v>
       </c>
       <c r="I126" t="n">
-        <v>2582805.880135695</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J126" t="n">
-        <v>171304.6</v>
+        <v>146049.6</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -6245,11 +6245,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1012111</v>
+        <v>1005170</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>Green Plains Madison LLC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6259,26 +6259,26 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>919777.6484962004</v>
+        <v>72602000.17068377</v>
       </c>
       <c r="G127" t="n">
-        <v>11282605.82155339</v>
+        <v>30080508.83830955</v>
       </c>
       <c r="H127" t="n">
-        <v>122637019.7994934</v>
+        <v>326962052.5903212</v>
       </c>
       <c r="I127" t="n">
-        <v>464949.8680738786</v>
+        <v>2202029.400678477</v>
       </c>
       <c r="J127" t="n">
-        <v>30837.8</v>
+        <v>146049.6</v>
       </c>
       <c r="K127" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -6291,11 +6291,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1000037</v>
+        <v>1005374</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6305,30 +6305,30 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4692125.273955334</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>6734350.471619476</v>
+        <v>56788348.04883087</v>
       </c>
       <c r="H128" t="n">
-        <v>73199461.64803778</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>474376.177911798</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J128" t="n">
-        <v>31463</v>
+        <v>505123.7</v>
       </c>
       <c r="K128" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6337,11 +6337,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1000376</v>
+        <v>1005374</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6351,30 +6351,30 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>16824526.88536493</v>
+        <v>4742991.773658318</v>
       </c>
       <c r="G129" t="n">
-        <v>21016944.38920391</v>
+        <v>205343643.8477954</v>
       </c>
       <c r="H129" t="n">
-        <v>228445047.7087382</v>
+        <v>2231996128.780385</v>
       </c>
       <c r="I129" t="n">
-        <v>1700967.960799095</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J129" t="n">
-        <v>112816.7</v>
+        <v>505123.7</v>
       </c>
       <c r="K129" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6383,11 +6383,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1000466</v>
+        <v>1005374</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6397,23 +6397,23 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>40242054.2434716</v>
+        <v>16739970.96585288</v>
       </c>
       <c r="G130" t="n">
-        <v>52979990.28744619</v>
+        <v>205343643.8477954</v>
       </c>
       <c r="H130" t="n">
-        <v>575869459.6461542</v>
+        <v>2231996128.780385</v>
       </c>
       <c r="I130" t="n">
-        <v>4068491.519035055</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J130" t="n">
-        <v>269842.7</v>
+        <v>505123.7</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -6429,11 +6429,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1002346</v>
+        <v>1005374</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6443,30 +6443,30 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5859705.835085903</v>
+        <v>83699854.82926442</v>
       </c>
       <c r="G131" t="n">
-        <v>8410114.915963728</v>
+        <v>110193616.5854275</v>
       </c>
       <c r="H131" t="n">
-        <v>91414292.56482314</v>
+        <v>1197756702.015516</v>
       </c>
       <c r="I131" t="n">
-        <v>592419.1481341877</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J131" t="n">
-        <v>39292.2</v>
+        <v>505123.7</v>
       </c>
       <c r="K131" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6475,11 +6475,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1002356</v>
+        <v>1005374</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6489,23 +6489,23 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>27502150.43850181</v>
+        <v>278999516.0975481</v>
       </c>
       <c r="G132" t="n">
-        <v>36207487.17995894</v>
+        <v>115595264.4572622</v>
       </c>
       <c r="H132" t="n">
-        <v>393559643.2604232</v>
+        <v>1256470265.839806</v>
       </c>
       <c r="I132" t="n">
-        <v>2780480.964945345</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J132" t="n">
-        <v>184415.4</v>
+        <v>505123.7</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -6521,11 +6521,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1002614</v>
+        <v>1005374</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6535,23 +6535,23 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4410550.035428967</v>
+        <v>4268692.596292485</v>
       </c>
       <c r="G133" t="n">
-        <v>5509592.361913322</v>
+        <v>184809279.4630159</v>
       </c>
       <c r="H133" t="n">
-        <v>59886873.49905784</v>
+        <v>2008796515.902346</v>
       </c>
       <c r="I133" t="n">
-        <v>445908.7825103656</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J133" t="n">
-        <v>29574.9</v>
+        <v>505123.7</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -6567,11 +6567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1003422</v>
+        <v>1005374</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6581,23 +6581,23 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>13335878.13139473</v>
+        <v>15065973.8692676</v>
       </c>
       <c r="G134" t="n">
-        <v>17557122.94410215</v>
+        <v>184809279.4630159</v>
       </c>
       <c r="H134" t="n">
-        <v>190838292.8706756</v>
+        <v>2008796515.902346</v>
       </c>
       <c r="I134" t="n">
-        <v>1348263.852242744</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J134" t="n">
-        <v>89423.60000000001</v>
+        <v>505123.7</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -6613,11 +6613,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1004033</v>
+        <v>1005374</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6631,19 +6631,19 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>9333396.696770636</v>
+        <v>75329869.34633799</v>
       </c>
       <c r="G135" t="n">
-        <v>11659137.91662339</v>
+        <v>99174254.92688474</v>
       </c>
       <c r="H135" t="n">
-        <v>126729759.9632978</v>
+        <v>1077981031.813965</v>
       </c>
       <c r="I135" t="n">
-        <v>943611.0064078402</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J135" t="n">
-        <v>62585</v>
+        <v>505123.7</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6659,11 +6659,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1004276</v>
+        <v>1005374</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>Marquis Energy - Illinois LLC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6673,30 +6673,30 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>28760969.6686279</v>
+        <v>251099564.4877933</v>
       </c>
       <c r="G136" t="n">
-        <v>37864764.17139258</v>
+        <v>104035738.011536</v>
       </c>
       <c r="H136" t="n">
-        <v>411573523.6020933</v>
+        <v>1130823239.255826</v>
       </c>
       <c r="I136" t="n">
-        <v>2907748.209574067</v>
+        <v>7615886.920467395</v>
       </c>
       <c r="J136" t="n">
-        <v>192856.4</v>
+        <v>505123.7</v>
       </c>
       <c r="K136" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6705,11 +6705,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1004668</v>
+        <v>1006469</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6719,30 +6719,30 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>9725821.400260007</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>12804364.31514436</v>
+        <v>20332074.09684934</v>
       </c>
       <c r="H137" t="n">
-        <v>139177872.9906996</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>983285.3373539388</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J137" t="n">
-        <v>65216.4</v>
+        <v>180850.7</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6751,11 +6751,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1004708</v>
+        <v>1006469</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6765,30 +6765,30 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6687818.298415738</v>
+        <v>1698145.19168344</v>
       </c>
       <c r="G138" t="n">
-        <v>15695016.89013931</v>
+        <v>73519697.7105301</v>
       </c>
       <c r="H138" t="n">
-        <v>170598009.6754273</v>
+        <v>799127149.0275011</v>
       </c>
       <c r="I138" t="n">
-        <v>676141.7263475312</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J138" t="n">
-        <v>44845.10000000001</v>
+        <v>180850.7</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6797,11 +6797,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1004861</v>
+        <v>1006469</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6811,30 +6811,30 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>24420764.97508383</v>
+        <v>5993453.617706259</v>
       </c>
       <c r="G139" t="n">
-        <v>32837212.88049899</v>
+        <v>73519697.7105301</v>
       </c>
       <c r="H139" t="n">
-        <v>356926226.9619456</v>
+        <v>799127149.0275011</v>
       </c>
       <c r="I139" t="n">
-        <v>2468951.37580098</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J139" t="n">
-        <v>163753.2</v>
+        <v>180850.7</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1005019</v>
+        <v>1006469</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6857,30 +6857,30 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>7563045.952415721</v>
+        <v>29967268.08853129</v>
       </c>
       <c r="G140" t="n">
-        <v>9447642.556485903</v>
+        <v>39452895.78573758</v>
       </c>
       <c r="H140" t="n">
-        <v>102691766.918325</v>
+        <v>428835823.7580172</v>
       </c>
       <c r="I140" t="n">
-        <v>764627.6735603663</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J140" t="n">
-        <v>50714.1</v>
+        <v>180850.7</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6889,11 +6889,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1005170</v>
+        <v>1006469</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6903,30 +6903,30 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>21780600.05120513</v>
+        <v>99890893.62843764</v>
       </c>
       <c r="G141" t="n">
-        <v>28674877.58418293</v>
+        <v>41386861.2654306</v>
       </c>
       <c r="H141" t="n">
-        <v>311683452.0019884</v>
+        <v>449857187.667724</v>
       </c>
       <c r="I141" t="n">
-        <v>2202029.400678477</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J141" t="n">
-        <v>146049.6</v>
+        <v>180850.7</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6935,11 +6935,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1005374</v>
+        <v>1006469</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6949,30 +6949,30 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>75329869.34633799</v>
+        <v>1528330.672515096</v>
       </c>
       <c r="G142" t="n">
-        <v>99174254.92688474</v>
+        <v>66167727.93947709</v>
       </c>
       <c r="H142" t="n">
-        <v>1077981031.813965</v>
+        <v>719214434.124751</v>
       </c>
       <c r="I142" t="n">
-        <v>7615886.920467395</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J142" t="n">
-        <v>505123.7</v>
+        <v>180850.7</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -6995,17 +6995,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>26970541.27967816</v>
+        <v>5394108.255935633</v>
       </c>
       <c r="G143" t="n">
-        <v>35507606.20716383</v>
+        <v>66167727.93947709</v>
       </c>
       <c r="H143" t="n">
-        <v>385952241.3822155</v>
+        <v>719214434.124751</v>
       </c>
       <c r="I143" t="n">
         <v>2726735.01696193</v>
@@ -7027,11 +7027,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1006787</v>
+        <v>1006469</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7045,26 +7045,26 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>25546916.79766103</v>
+        <v>26970541.27967816</v>
       </c>
       <c r="G144" t="n">
-        <v>33633357.67169115</v>
+        <v>35507606.20716383</v>
       </c>
       <c r="H144" t="n">
-        <v>365579974.6922951</v>
+        <v>385952241.3822155</v>
       </c>
       <c r="I144" t="n">
-        <v>2582805.880135695</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J144" t="n">
-        <v>171304.6</v>
+        <v>180850.7</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -7073,11 +7073,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1012111</v>
+        <v>1006469</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
+          <t>PATRIOT RENEWABLE FUELS LLC</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7087,30 +7087,30 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4598888.242481003</v>
+        <v>89901804.26559387</v>
       </c>
       <c r="G145" t="n">
-        <v>6600532.465871246</v>
+        <v>37248175.13888754</v>
       </c>
       <c r="H145" t="n">
-        <v>71744918.10729615</v>
+        <v>404871468.9009515</v>
       </c>
       <c r="I145" t="n">
-        <v>464949.8680738786</v>
+        <v>2726735.01696193</v>
       </c>
       <c r="J145" t="n">
-        <v>30837.8</v>
+        <v>180850.7</v>
       </c>
       <c r="K145" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>123.6999999999825</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -7119,11 +7119,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1000037</v>
+        <v>1006787</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TYSON FRESH MEATS INC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7133,30 +7133,30 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>15640417.57985111</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>7027148.318211627</v>
+        <v>19258857.280238</v>
       </c>
       <c r="H146" t="n">
-        <v>76382046.9370829</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>474376.177911798</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J146" t="n">
-        <v>31463</v>
+        <v>171304.6</v>
       </c>
       <c r="K146" t="n">
-        <v>7909.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7165,11 +7165,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1000376</v>
+        <v>1006787</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ADM QUINCY</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7179,30 +7179,30 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>56081756.28454976</v>
+        <v>1608509.576149028</v>
       </c>
       <c r="G147" t="n">
-        <v>22123099.35705675</v>
+        <v>69639002.82621673</v>
       </c>
       <c r="H147" t="n">
-        <v>240468471.272356</v>
+        <v>756945682.8936601</v>
       </c>
       <c r="I147" t="n">
-        <v>1700967.960799095</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J147" t="n">
-        <v>112816.7</v>
+        <v>171304.6</v>
       </c>
       <c r="K147" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7211,11 +7211,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1000466</v>
+        <v>1006787</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BioUrja Renewables LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7225,23 +7225,23 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>134140180.811572</v>
+        <v>5677092.62170245</v>
       </c>
       <c r="G148" t="n">
-        <v>55577048.63487002</v>
+        <v>69639002.82621673</v>
       </c>
       <c r="H148" t="n">
-        <v>604098354.726848</v>
+        <v>756945682.8936601</v>
       </c>
       <c r="I148" t="n">
-        <v>4068491.519035055</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J148" t="n">
-        <v>269842.7</v>
+        <v>171304.6</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -7257,11 +7257,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1002346</v>
+        <v>1006787</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>JBS/Swift Pork Company</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7271,30 +7271,30 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>19532352.78361968</v>
+        <v>28385463.10851225</v>
       </c>
       <c r="G149" t="n">
-        <v>8775772.086223019</v>
+        <v>37370397.41299017</v>
       </c>
       <c r="H149" t="n">
-        <v>95388827.02416326</v>
+        <v>406199971.8803279</v>
       </c>
       <c r="I149" t="n">
-        <v>592419.1481341877</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J149" t="n">
-        <v>39292.2</v>
+        <v>171304.6</v>
       </c>
       <c r="K149" t="n">
-        <v>7042.5</v>
+        <v>0</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['Other Biomass Gases', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7303,11 +7303,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1002356</v>
+        <v>1006787</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ONE EARTH ENERGY LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7317,23 +7317,23 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>91673834.79500604</v>
+        <v>94618210.36170751</v>
       </c>
       <c r="G150" t="n">
-        <v>37982364.00250594</v>
+        <v>39202279.63911714</v>
       </c>
       <c r="H150" t="n">
-        <v>412851782.6359342</v>
+        <v>426111735.207795</v>
       </c>
       <c r="I150" t="n">
-        <v>2780480.964945345</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J150" t="n">
-        <v>184415.4</v>
+        <v>171304.6</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -7349,11 +7349,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1002614</v>
+        <v>1006787</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SOLAE CO GIBSON</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7363,23 +7363,23 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>14701833.45142989</v>
+        <v>1447658.618534125</v>
       </c>
       <c r="G151" t="n">
-        <v>5799570.907277181</v>
+        <v>62675102.54359505</v>
       </c>
       <c r="H151" t="n">
-        <v>63038814.20953458</v>
+        <v>681251114.6042941</v>
       </c>
       <c r="I151" t="n">
-        <v>445908.7825103656</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J151" t="n">
-        <v>29574.9</v>
+        <v>171304.6</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
@@ -7395,11 +7395,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1003422</v>
+        <v>1006787</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ADKINS ENERGY LLC</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7409,23 +7409,23 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>44452927.10464909</v>
+        <v>5109383.359532205</v>
       </c>
       <c r="G152" t="n">
-        <v>18417766.22567579</v>
+        <v>62675102.54359505</v>
       </c>
       <c r="H152" t="n">
-        <v>200193111.1486499</v>
+        <v>681251114.6042941</v>
       </c>
       <c r="I152" t="n">
-        <v>1348263.852242744</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J152" t="n">
-        <v>89423.60000000001</v>
+        <v>171304.6</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -7441,11 +7441,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1004033</v>
+        <v>1006787</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>INCOBRASA INDUSTRIES LTD</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7455,23 +7455,23 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>31111322.32256879</v>
+        <v>25546916.79766103</v>
       </c>
       <c r="G153" t="n">
-        <v>12272776.75434042</v>
+        <v>33633357.67169115</v>
       </c>
       <c r="H153" t="n">
-        <v>133399747.3297871</v>
+        <v>365579974.6922951</v>
       </c>
       <c r="I153" t="n">
-        <v>943611.0064078402</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J153" t="n">
-        <v>62585</v>
+        <v>171304.6</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -7487,11 +7487,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1004276</v>
+        <v>1006787</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CHS-Rochelle</t>
+          <t>BIG RIVER RESOURCES GALVA LLC</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7505,26 +7505,26 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>95869898.89542632</v>
+        <v>85156389.32553676</v>
       </c>
       <c r="G154" t="n">
-        <v>39720880.06214713</v>
+        <v>35282051.67520543</v>
       </c>
       <c r="H154" t="n">
-        <v>431748696.3276861</v>
+        <v>383500561.6870155</v>
       </c>
       <c r="I154" t="n">
-        <v>2907748.209574067</v>
+        <v>2582805.880135695</v>
       </c>
       <c r="J154" t="n">
-        <v>192856.4</v>
+        <v>171304.6</v>
       </c>
       <c r="K154" t="n">
-        <v>244.2999999999884</v>
+        <v>0</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7533,11 +7533,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1004668</v>
+        <v>1012111</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LINCOLNLAND AGRI-ENERGY LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7547,26 +7547,26 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>32419404.66753336</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>13432029.2325534</v>
+        <v>3466928.436460686</v>
       </c>
       <c r="H155" t="n">
-        <v>146000317.7451456</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>983285.3373539388</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J155" t="n">
-        <v>65216.4</v>
+        <v>30837.8</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -7579,11 +7579,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1004708</v>
+        <v>1012111</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BUNGE LODERS CROKLAAN USA, LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7593,26 +7593,26 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>22292727.66138579</v>
+        <v>289559.6300821372</v>
       </c>
       <c r="G156" t="n">
-        <v>16002762.31935773</v>
+        <v>12536228.69061488</v>
       </c>
       <c r="H156" t="n">
-        <v>173943068.688671</v>
+        <v>136263355.3327704</v>
       </c>
       <c r="I156" t="n">
-        <v>676141.7263475312</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J156" t="n">
-        <v>44845.10000000001</v>
+        <v>30837.8</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -7625,11 +7625,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1004861</v>
+        <v>1012111</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Alto ICP, LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7639,26 +7639,26 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>81402549.9169461</v>
+        <v>1021975.164995778</v>
       </c>
       <c r="G157" t="n">
-        <v>34400889.68433228</v>
+        <v>12536228.69061488</v>
       </c>
       <c r="H157" t="n">
-        <v>373922713.9601335</v>
+        <v>136263355.3327704</v>
       </c>
       <c r="I157" t="n">
-        <v>2468951.37580098</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J157" t="n">
-        <v>163753.2</v>
+        <v>30837.8</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -7671,11 +7671,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1005019</v>
+        <v>1012111</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bunge Chevron Ag Renewables LLC  Cairo Facility</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7685,30 +7685,30 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25210153.17471907</v>
+        <v>5109875.824978892</v>
       </c>
       <c r="G158" t="n">
-        <v>9944886.901564108</v>
+        <v>7333924.962079162</v>
       </c>
       <c r="H158" t="n">
-        <v>108096596.7561316</v>
+        <v>79716575.6747735</v>
       </c>
       <c r="I158" t="n">
-        <v>764627.6735603663</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J158" t="n">
-        <v>50714.1</v>
+        <v>30837.8</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['Distillate Fuel Oil No. 2', 'Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7717,11 +7717,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1005170</v>
+        <v>1012111</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Green Plains Madison LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7731,26 +7731,26 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>72602000.17068377</v>
+        <v>17032919.4165963</v>
       </c>
       <c r="G159" t="n">
-        <v>30080508.83830955</v>
+        <v>7652791.264778257</v>
       </c>
       <c r="H159" t="n">
-        <v>326962052.5903212</v>
+        <v>83182513.74758975</v>
       </c>
       <c r="I159" t="n">
-        <v>2202029.400678477</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J159" t="n">
-        <v>146049.6</v>
+        <v>30837.8</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7763,11 +7763,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1005374</v>
+        <v>1012111</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Marquis Energy - Illinois LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7777,26 +7777,26 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>251099564.4877933</v>
+        <v>260603.6670739235</v>
       </c>
       <c r="G160" t="n">
-        <v>104035738.011536</v>
+        <v>11282605.82155339</v>
       </c>
       <c r="H160" t="n">
-        <v>1130823239.255826</v>
+        <v>122637019.7994934</v>
       </c>
       <c r="I160" t="n">
-        <v>7615886.920467395</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J160" t="n">
-        <v>505123.7</v>
+        <v>30837.8</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7809,11 +7809,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1006469</v>
+        <v>1012111</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PATRIOT RENEWABLE FUELS LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7823,30 +7823,30 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>89901804.26559387</v>
+        <v>919777.6484962004</v>
       </c>
       <c r="G161" t="n">
-        <v>37248175.13888754</v>
+        <v>11282605.82155339</v>
       </c>
       <c r="H161" t="n">
-        <v>404871468.9009515</v>
+        <v>122637019.7994934</v>
       </c>
       <c r="I161" t="n">
-        <v>2726735.01696193</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J161" t="n">
-        <v>180850.7</v>
+        <v>30837.8</v>
       </c>
       <c r="K161" t="n">
-        <v>123.6999999999825</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7855,11 +7855,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1006787</v>
+        <v>1012111</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>BIG RIVER RESOURCES GALVA LLC</t>
+          <t>SMITHFIELD FARMLAND CORP-MONMOUTH</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7869,26 +7869,26 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>85156389.32553676</v>
+        <v>4598888.242481003</v>
       </c>
       <c r="G162" t="n">
-        <v>35282051.67520543</v>
+        <v>6600532.465871246</v>
       </c>
       <c r="H162" t="n">
-        <v>383500561.6870155</v>
+        <v>71744918.10729615</v>
       </c>
       <c r="I162" t="n">
-        <v>2582805.880135695</v>
+        <v>464949.8680738786</v>
       </c>
       <c r="J162" t="n">
-        <v>171304.6</v>
+        <v>30837.8</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
